--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1436612.912817985</v>
+        <v>1435824.597955732</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736564</v>
+        <v>504792.0292736547</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="S8" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1230,49 +1230,49 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>8.816525072005941</v>
       </c>
       <c r="U9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,61 +1297,61 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="H10" t="n">
+      <c r="U10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.1382183351761</v>
       </c>
       <c r="C11" t="n">
         <v>275.1495352928579</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>266.1308393373859</v>
       </c>
       <c r="E11" t="n">
-        <v>287.8729769072913</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95623626186881</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>308.4622397424783</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>221.2455225163847</v>
       </c>
       <c r="I11" t="n">
-        <v>48.23794612205219</v>
+        <v>22.62281599331387</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.63752536781382</v>
       </c>
       <c r="T11" t="n">
         <v>116.8924639335798</v>
       </c>
       <c r="U11" t="n">
-        <v>149.330331443466</v>
+        <v>149.3303314434661</v>
       </c>
       <c r="V11" t="n">
-        <v>230.6445955753552</v>
+        <v>230.6445955753553</v>
       </c>
       <c r="W11" t="n">
-        <v>255.9446950533121</v>
+        <v>255.9446950533122</v>
       </c>
       <c r="X11" t="n">
-        <v>275.2449532860587</v>
+        <v>275.2449532860588</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.6415510822575</v>
+        <v>286.6415510822576</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.05092059949521</v>
+        <v>42.0509205994952</v>
       </c>
       <c r="S12" t="n">
         <v>146.1451240553701</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.75492920987318</v>
+        <v>78.75492920987324</v>
       </c>
       <c r="C13" t="n">
-        <v>64.95492405527366</v>
+        <v>64.95492405527372</v>
       </c>
       <c r="D13" t="n">
-        <v>48.57628845285205</v>
+        <v>48.57628845285211</v>
       </c>
       <c r="E13" t="n">
-        <v>47.5240383086315</v>
+        <v>47.52403830863156</v>
       </c>
       <c r="F13" t="n">
-        <v>47.99096263681781</v>
+        <v>47.99096263681787</v>
       </c>
       <c r="G13" t="n">
-        <v>64.03428574795751</v>
+        <v>64.03428574795757</v>
       </c>
       <c r="H13" t="n">
-        <v>52.75685790100556</v>
+        <v>52.75685790100562</v>
       </c>
       <c r="I13" t="n">
-        <v>32.83791225142622</v>
+        <v>32.83791225142626</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.6580091287442</v>
+        <v>34.65800912874424</v>
       </c>
       <c r="S13" t="n">
-        <v>104.5754636120592</v>
+        <v>104.5754636120593</v>
       </c>
       <c r="T13" t="n">
-        <v>126.8936558939258</v>
+        <v>126.8936558939259</v>
       </c>
       <c r="U13" t="n">
-        <v>181.3408306221169</v>
+        <v>181.340830622117</v>
       </c>
       <c r="V13" t="n">
         <v>155.1630656094988</v>
       </c>
       <c r="W13" t="n">
-        <v>180.329951680112</v>
+        <v>180.3299516801121</v>
       </c>
       <c r="X13" t="n">
-        <v>125.9750536759151</v>
+        <v>125.9750536759152</v>
       </c>
       <c r="Y13" t="n">
-        <v>116.8499214319828</v>
+        <v>116.8499214319829</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>287.1382183351761</v>
       </c>
       <c r="C14" t="n">
-        <v>141.1796874529037</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>266.1308393373859</v>
       </c>
       <c r="E14" t="n">
-        <v>287.8729769072913</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>307.0447929952685</v>
+        <v>307.0447929952686</v>
       </c>
       <c r="G14" t="n">
-        <v>308.4622397424783</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.2455225163847</v>
       </c>
       <c r="I14" t="n">
-        <v>48.23794612205219</v>
+        <v>48.23794612205222</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.63752536781377</v>
+        <v>70.63752536781379</v>
       </c>
       <c r="T14" t="n">
         <v>116.8924639335798</v>
       </c>
       <c r="U14" t="n">
-        <v>149.330331443466</v>
+        <v>149.3303314434661</v>
       </c>
       <c r="V14" t="n">
-        <v>230.6445955753552</v>
+        <v>230.6445955753553</v>
       </c>
       <c r="W14" t="n">
-        <v>255.9446950533121</v>
+        <v>255.9446950533122</v>
       </c>
       <c r="X14" t="n">
-        <v>275.2449532860587</v>
+        <v>217.7345654549095</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>286.6415510822575</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.75492920987318</v>
+        <v>78.75492920987321</v>
       </c>
       <c r="C16" t="n">
-        <v>64.95492405527366</v>
+        <v>64.95492405527369</v>
       </c>
       <c r="D16" t="n">
-        <v>48.57628845285205</v>
+        <v>48.57628845285208</v>
       </c>
       <c r="E16" t="n">
-        <v>47.5240383086315</v>
+        <v>47.52403830863153</v>
       </c>
       <c r="F16" t="n">
-        <v>47.99096263681781</v>
+        <v>47.99096263681784</v>
       </c>
       <c r="G16" t="n">
-        <v>64.03428574795751</v>
+        <v>64.03428574795754</v>
       </c>
       <c r="H16" t="n">
-        <v>52.75685790100556</v>
+        <v>52.75685790100558</v>
       </c>
       <c r="I16" t="n">
-        <v>32.83791225142622</v>
+        <v>32.83791225142624</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.6580091287442</v>
+        <v>34.65800912874423</v>
       </c>
       <c r="S16" t="n">
-        <v>104.5754636120592</v>
+        <v>104.5754636120593</v>
       </c>
       <c r="T16" t="n">
         <v>126.8936558939258</v>
@@ -1825,13 +1825,13 @@
         <v>155.1630656094988</v>
       </c>
       <c r="W16" t="n">
-        <v>180.329951680112</v>
+        <v>180.3299516801121</v>
       </c>
       <c r="X16" t="n">
-        <v>125.9750536759151</v>
+        <v>125.9750536759152</v>
       </c>
       <c r="Y16" t="n">
-        <v>116.8499214319828</v>
+        <v>116.8499214319829</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.2269902171961</v>
+        <v>224.2269902171958</v>
       </c>
       <c r="C17" t="n">
-        <v>212.2383071748779</v>
+        <v>212.2383071748776</v>
       </c>
       <c r="D17" t="n">
-        <v>203.2196112194058</v>
+        <v>203.2196112194056</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9617487893114</v>
+        <v>224.9617487893111</v>
       </c>
       <c r="F17" t="n">
-        <v>244.1335648772885</v>
+        <v>244.1335648772883</v>
       </c>
       <c r="G17" t="n">
-        <v>245.5510116244983</v>
+        <v>245.5510116244981</v>
       </c>
       <c r="H17" t="n">
-        <v>158.3342943984047</v>
+        <v>158.3342943984044</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.726297249833785</v>
+        <v>7.7262972498335</v>
       </c>
       <c r="T17" t="n">
-        <v>53.98123581559981</v>
+        <v>53.98123581559953</v>
       </c>
       <c r="U17" t="n">
-        <v>86.41910332548605</v>
+        <v>86.41910332548576</v>
       </c>
       <c r="V17" t="n">
-        <v>167.7333674573752</v>
+        <v>167.733367457375</v>
       </c>
       <c r="W17" t="n">
-        <v>193.0334669353321</v>
+        <v>193.0334669353319</v>
       </c>
       <c r="X17" t="n">
-        <v>212.3337251680788</v>
+        <v>212.3337251680785</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.7303229642775</v>
+        <v>223.7303229642772</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.84370109189319</v>
+        <v>15.84370109189291</v>
       </c>
       <c r="C19" t="n">
-        <v>2.043695937293677</v>
+        <v>2.043695937293393</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>147.8962228686197</v>
+        <v>1.123057629977241</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.66423549407925</v>
+        <v>41.66423549407897</v>
       </c>
       <c r="T19" t="n">
-        <v>63.98242777594582</v>
+        <v>63.98242777594553</v>
       </c>
       <c r="U19" t="n">
-        <v>118.4296025041369</v>
+        <v>265.2027677427813</v>
       </c>
       <c r="V19" t="n">
-        <v>92.25183749151878</v>
+        <v>92.2518374915185</v>
       </c>
       <c r="W19" t="n">
-        <v>117.418723562132</v>
+        <v>117.4187235621318</v>
       </c>
       <c r="X19" t="n">
-        <v>63.06382555793516</v>
+        <v>63.06382555793488</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.93869331400285</v>
+        <v>53.93869331400256</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.2269902171961</v>
+        <v>224.2269902171958</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2383071748779</v>
+        <v>212.2383071748776</v>
       </c>
       <c r="D20" t="n">
-        <v>203.2196112194058</v>
+        <v>203.2196112194056</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9617487893114</v>
+        <v>224.9617487893111</v>
       </c>
       <c r="F20" t="n">
-        <v>244.1335648772885</v>
+        <v>244.1335648772883</v>
       </c>
       <c r="G20" t="n">
-        <v>245.5510116244983</v>
+        <v>245.551011624498</v>
       </c>
       <c r="H20" t="n">
-        <v>158.3342943984047</v>
+        <v>158.3342943984044</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.726297249833785</v>
+        <v>7.7262972498335</v>
       </c>
       <c r="T20" t="n">
-        <v>53.9812358155998</v>
+        <v>53.98123581559953</v>
       </c>
       <c r="U20" t="n">
-        <v>86.41910332548605</v>
+        <v>86.41910332548576</v>
       </c>
       <c r="V20" t="n">
-        <v>167.7333674573752</v>
+        <v>167.733367457375</v>
       </c>
       <c r="W20" t="n">
-        <v>193.0334669353321</v>
+        <v>193.0334669353319</v>
       </c>
       <c r="X20" t="n">
-        <v>212.3337251680788</v>
+        <v>212.3337251680785</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.7303229642775</v>
+        <v>223.7303229642772</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.84370109189319</v>
+        <v>15.84370109189291</v>
       </c>
       <c r="C22" t="n">
-        <v>2.043695937293677</v>
+        <v>2.043695937293393</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.7731652386421</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.123057629977525</v>
+        <v>1.123057629977241</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>137.622894916407</v>
       </c>
       <c r="S22" t="n">
-        <v>41.66423549407925</v>
+        <v>50.81450581631669</v>
       </c>
       <c r="T22" t="n">
-        <v>63.98242777594582</v>
+        <v>63.98242777594553</v>
       </c>
       <c r="U22" t="n">
-        <v>118.4296025041369</v>
+        <v>118.4296025041367</v>
       </c>
       <c r="V22" t="n">
-        <v>92.25183749151878</v>
+        <v>92.2518374915185</v>
       </c>
       <c r="W22" t="n">
-        <v>117.418723562132</v>
+        <v>117.4187235621318</v>
       </c>
       <c r="X22" t="n">
-        <v>63.06382555793516</v>
+        <v>63.06382555793488</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.93869331400285</v>
+        <v>53.93869331400256</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.2269902171961</v>
+        <v>224.2269902171958</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2383071748779</v>
+        <v>212.2383071748776</v>
       </c>
       <c r="D23" t="n">
-        <v>203.2196112194058</v>
+        <v>203.2196112194056</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9617487893114</v>
+        <v>224.9617487893111</v>
       </c>
       <c r="F23" t="n">
-        <v>244.1335648772885</v>
+        <v>244.1335648772883</v>
       </c>
       <c r="G23" t="n">
-        <v>245.5510116244983</v>
+        <v>245.551011624498</v>
       </c>
       <c r="H23" t="n">
-        <v>158.3342943984047</v>
+        <v>158.3342943984044</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.726297249833777</v>
+        <v>7.726297249833493</v>
       </c>
       <c r="T23" t="n">
-        <v>53.9812358155998</v>
+        <v>53.98123581559952</v>
       </c>
       <c r="U23" t="n">
-        <v>86.41910332548605</v>
+        <v>86.41910332548576</v>
       </c>
       <c r="V23" t="n">
-        <v>167.7333674573752</v>
+        <v>167.733367457375</v>
       </c>
       <c r="W23" t="n">
-        <v>193.0334669353321</v>
+        <v>193.0334669353319</v>
       </c>
       <c r="X23" t="n">
-        <v>212.3337251680788</v>
+        <v>212.3337251680785</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.7303229642775</v>
+        <v>223.7303229642772</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.84370109189319</v>
+        <v>15.84370109189291</v>
       </c>
       <c r="C25" t="n">
-        <v>2.043695937293677</v>
+        <v>2.043695937293393</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.123057629977525</v>
+        <v>1.123057629977241</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.622894916407</v>
       </c>
       <c r="S25" t="n">
-        <v>188.4374007327213</v>
+        <v>41.66423549407897</v>
       </c>
       <c r="T25" t="n">
-        <v>63.98242777594582</v>
+        <v>73.13269809818325</v>
       </c>
       <c r="U25" t="n">
-        <v>118.4296025041369</v>
+        <v>118.4296025041367</v>
       </c>
       <c r="V25" t="n">
-        <v>92.25183749151878</v>
+        <v>92.2518374915185</v>
       </c>
       <c r="W25" t="n">
-        <v>117.418723562132</v>
+        <v>117.4187235621318</v>
       </c>
       <c r="X25" t="n">
-        <v>63.06382555793516</v>
+        <v>63.06382555793488</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.93869331400285</v>
+        <v>53.93869331400256</v>
       </c>
     </row>
     <row r="26">
@@ -2558,13 +2558,13 @@
         <v>275.1495352928579</v>
       </c>
       <c r="D26" t="n">
-        <v>226.3692745230944</v>
+        <v>266.1308393373859</v>
       </c>
       <c r="E26" t="n">
         <v>287.8729769072914</v>
       </c>
       <c r="F26" t="n">
-        <v>307.0447929952686</v>
+        <v>36.63863260562855</v>
       </c>
       <c r="G26" t="n">
         <v>308.4622397424783</v>
@@ -2573,7 +2573,7 @@
         <v>221.2455225163847</v>
       </c>
       <c r="I26" t="n">
-        <v>48.23794612205219</v>
+        <v>48.23794612205224</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.63752536781379</v>
+        <v>70.63752536781382</v>
       </c>
       <c r="T26" t="n">
         <v>116.8924639335798</v>
@@ -2612,7 +2612,7 @@
         <v>149.3303314434661</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>230.6445955753553</v>
       </c>
       <c r="W26" t="n">
         <v>255.9446950533122</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.0509205994952</v>
+        <v>42.05092059949521</v>
       </c>
       <c r="S27" t="n">
         <v>146.1451240553701</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.75492920987321</v>
+        <v>78.75492920987323</v>
       </c>
       <c r="C28" t="n">
-        <v>64.95492405527369</v>
+        <v>64.95492405527371</v>
       </c>
       <c r="D28" t="n">
-        <v>48.57628845285208</v>
+        <v>48.5762884528521</v>
       </c>
       <c r="E28" t="n">
-        <v>47.52403830863153</v>
+        <v>47.52403830863155</v>
       </c>
       <c r="F28" t="n">
-        <v>47.99096263681784</v>
+        <v>47.99096263681786</v>
       </c>
       <c r="G28" t="n">
-        <v>64.03428574795754</v>
+        <v>64.03428574795755</v>
       </c>
       <c r="H28" t="n">
-        <v>52.75685790100558</v>
+        <v>52.7568579010056</v>
       </c>
       <c r="I28" t="n">
-        <v>32.83791225142623</v>
+        <v>32.83791225142625</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65800912874421</v>
+        <v>34.65800912874424</v>
       </c>
       <c r="S28" t="n">
         <v>104.5754636120593</v>
@@ -2801,7 +2801,7 @@
         <v>287.8729769072914</v>
       </c>
       <c r="F29" t="n">
-        <v>84.87657872767336</v>
+        <v>36.63863260562804</v>
       </c>
       <c r="G29" t="n">
         <v>308.4622397424783</v>
@@ -2810,7 +2810,7 @@
         <v>221.2455225163847</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>48.23794612205224</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.63752536781379</v>
+        <v>70.63752536781382</v>
       </c>
       <c r="T29" t="n">
         <v>116.8924639335798</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.75492920987321</v>
+        <v>78.75492920987323</v>
       </c>
       <c r="C31" t="n">
-        <v>64.95492405527369</v>
+        <v>64.95492405527371</v>
       </c>
       <c r="D31" t="n">
-        <v>48.57628845285208</v>
+        <v>48.5762884528521</v>
       </c>
       <c r="E31" t="n">
-        <v>47.52403830863153</v>
+        <v>47.52403830863155</v>
       </c>
       <c r="F31" t="n">
-        <v>47.99096263681784</v>
+        <v>47.99096263681786</v>
       </c>
       <c r="G31" t="n">
-        <v>64.03428574795754</v>
+        <v>64.03428574795755</v>
       </c>
       <c r="H31" t="n">
-        <v>52.75685790100558</v>
+        <v>52.7568579010056</v>
       </c>
       <c r="I31" t="n">
-        <v>32.83791225142624</v>
+        <v>32.83791225142625</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65800912874423</v>
+        <v>34.65800912874424</v>
       </c>
       <c r="S31" t="n">
         <v>104.5754636120593</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.5214368811463</v>
+        <v>266.5214368811469</v>
       </c>
       <c r="C32" t="n">
-        <v>254.532753838828</v>
+        <v>254.5327538388286</v>
       </c>
       <c r="D32" t="n">
-        <v>245.514057883356</v>
+        <v>245.5140578833566</v>
       </c>
       <c r="E32" t="n">
-        <v>267.2561954532615</v>
+        <v>267.2561954532621</v>
       </c>
       <c r="F32" t="n">
-        <v>286.4280115412387</v>
+        <v>286.4280115412393</v>
       </c>
       <c r="G32" t="n">
-        <v>287.8454582884485</v>
+        <v>287.8454582884491</v>
       </c>
       <c r="H32" t="n">
-        <v>200.6287410623548</v>
+        <v>200.6287410623555</v>
       </c>
       <c r="I32" t="n">
-        <v>27.62116466802236</v>
+        <v>27.62116466802296</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.02074391378393</v>
+        <v>50.02074391378453</v>
       </c>
       <c r="T32" t="n">
-        <v>96.27568247954996</v>
+        <v>96.27568247955055</v>
       </c>
       <c r="U32" t="n">
-        <v>128.7135499894362</v>
+        <v>128.7135499894368</v>
       </c>
       <c r="V32" t="n">
-        <v>210.0278141213254</v>
+        <v>210.027814121326</v>
       </c>
       <c r="W32" t="n">
-        <v>235.3279135992823</v>
+        <v>235.3279135992829</v>
       </c>
       <c r="X32" t="n">
-        <v>254.6281718320289</v>
+        <v>254.6281718320295</v>
       </c>
       <c r="Y32" t="n">
-        <v>266.0247696282277</v>
+        <v>266.0247696282283</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58.13814775584335</v>
+        <v>58.13814775584395</v>
       </c>
       <c r="C34" t="n">
-        <v>44.33814260124383</v>
+        <v>44.33814260124443</v>
       </c>
       <c r="D34" t="n">
-        <v>27.95950699882222</v>
+        <v>27.95950699882282</v>
       </c>
       <c r="E34" t="n">
-        <v>26.90725685460167</v>
+        <v>26.90725685460227</v>
       </c>
       <c r="F34" t="n">
-        <v>27.37418118278798</v>
+        <v>27.37418118278858</v>
       </c>
       <c r="G34" t="n">
-        <v>43.41750429392768</v>
+        <v>43.41750429392827</v>
       </c>
       <c r="H34" t="n">
-        <v>32.14007644697572</v>
+        <v>32.14007644697632</v>
       </c>
       <c r="I34" t="n">
-        <v>12.22113079739637</v>
+        <v>12.22113079739697</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>14.04122767471436</v>
+        <v>14.04122767471496</v>
       </c>
       <c r="S34" t="n">
-        <v>83.9586821580294</v>
+        <v>83.95868215803</v>
       </c>
       <c r="T34" t="n">
-        <v>106.276874439896</v>
+        <v>106.2768744398966</v>
       </c>
       <c r="U34" t="n">
-        <v>160.7240491680871</v>
+        <v>160.7240491680877</v>
       </c>
       <c r="V34" t="n">
-        <v>134.5462841554689</v>
+        <v>134.5462841554696</v>
       </c>
       <c r="W34" t="n">
-        <v>159.7131702260822</v>
+        <v>159.7131702260828</v>
       </c>
       <c r="X34" t="n">
-        <v>105.3582722218853</v>
+        <v>105.3582722218859</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.233139977953</v>
+        <v>96.2331399779536</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>235.6144777833608</v>
+        <v>235.6144777833609</v>
       </c>
       <c r="C35" t="n">
         <v>223.6257947410426</v>
       </c>
       <c r="D35" t="n">
-        <v>214.6070987855705</v>
+        <v>214.6070987855706</v>
       </c>
       <c r="E35" t="n">
         <v>236.3492363554761</v>
       </c>
       <c r="F35" t="n">
-        <v>255.5210524434532</v>
+        <v>255.5210524434533</v>
       </c>
       <c r="G35" t="n">
-        <v>256.938499190663</v>
+        <v>256.9384991906631</v>
       </c>
       <c r="H35" t="n">
-        <v>169.7217819645694</v>
+        <v>169.7217819645695</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.11378481599849</v>
+        <v>19.11378481599854</v>
       </c>
       <c r="T35" t="n">
-        <v>65.36872338176451</v>
+        <v>65.36872338176457</v>
       </c>
       <c r="U35" t="n">
-        <v>97.80659089165076</v>
+        <v>97.80659089165081</v>
       </c>
       <c r="V35" t="n">
-        <v>179.1208550235399</v>
+        <v>179.12085502354</v>
       </c>
       <c r="W35" t="n">
         <v>204.4209545014969</v>
@@ -3332,7 +3332,7 @@
         <v>223.7212127342435</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.1178105304422</v>
+        <v>235.1178105304423</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.2311886580579</v>
+        <v>27.23118865805796</v>
       </c>
       <c r="C37" t="n">
-        <v>13.43118350345839</v>
+        <v>13.43118350345844</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.51054519614223</v>
+        <v>12.51054519614229</v>
       </c>
       <c r="H37" t="n">
-        <v>1.233117349190273</v>
+        <v>1.23311734919033</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.05172306024396</v>
+        <v>53.05172306024402</v>
       </c>
       <c r="T37" t="n">
-        <v>75.36991534211052</v>
+        <v>75.36991534211057</v>
       </c>
       <c r="U37" t="n">
-        <v>161.4822622981063</v>
+        <v>129.8170900703017</v>
       </c>
       <c r="V37" t="n">
         <v>103.6393250576835</v>
@@ -3487,10 +3487,10 @@
         <v>128.8062111282968</v>
       </c>
       <c r="X37" t="n">
-        <v>74.45131312409987</v>
+        <v>74.45131312409993</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.32618088016756</v>
+        <v>96.99135310797175</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>19.11378481599849</v>
       </c>
       <c r="T38" t="n">
-        <v>65.36872338176453</v>
+        <v>65.36872338176451</v>
       </c>
       <c r="U38" t="n">
         <v>97.80659089165076</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.77708075441933</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>84.71689528804872</v>
+        <v>53.05172306024396</v>
       </c>
       <c r="T40" t="n">
-        <v>75.36991534211052</v>
+        <v>88.25800681549582</v>
       </c>
       <c r="U40" t="n">
         <v>129.8170900703016</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>238.9002722131239</v>
+        <v>238.900272213124</v>
       </c>
       <c r="C41" t="n">
         <v>226.9115891708057</v>
@@ -3749,13 +3749,13 @@
         <v>239.6350307852392</v>
       </c>
       <c r="F41" t="n">
-        <v>212.8057248565328</v>
+        <v>258.8068468732164</v>
       </c>
       <c r="G41" t="n">
-        <v>260.2242936204261</v>
+        <v>260.2242936204262</v>
       </c>
       <c r="H41" t="n">
-        <v>173.0075763943325</v>
+        <v>127.006454377649</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>22.3995792457616</v>
+        <v>22.39957924576164</v>
       </c>
       <c r="T41" t="n">
-        <v>68.65451781152763</v>
+        <v>68.65451781152767</v>
       </c>
       <c r="U41" t="n">
         <v>101.0923853214139</v>
@@ -3806,7 +3806,7 @@
         <v>227.0070071640066</v>
       </c>
       <c r="Y41" t="n">
-        <v>238.4036049602053</v>
+        <v>238.4036049602054</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.51698308782102</v>
+        <v>30.51698308782105</v>
       </c>
       <c r="C43" t="n">
-        <v>16.7169779332215</v>
+        <v>16.71697793322153</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3383423307998896</v>
+        <v>0.338342330799918</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15.79633962590535</v>
+        <v>15.79633962590538</v>
       </c>
       <c r="H43" t="n">
-        <v>4.518911778953388</v>
+        <v>4.518911778953417</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.33751749000707</v>
+        <v>56.3375174900071</v>
       </c>
       <c r="T43" t="n">
-        <v>78.65570977187363</v>
+        <v>78.65570977187366</v>
       </c>
       <c r="U43" t="n">
         <v>133.1028845000648</v>
@@ -3961,10 +3961,10 @@
         <v>132.0920055580599</v>
       </c>
       <c r="X43" t="n">
-        <v>77.73710755386298</v>
+        <v>77.73710755386301</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.61197530993067</v>
+        <v>68.6119753099307</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>238.9002722131239</v>
+        <v>238.900272213124</v>
       </c>
       <c r="C44" t="n">
         <v>226.9115891708057</v>
@@ -3992,7 +3992,7 @@
         <v>260.2242936204262</v>
       </c>
       <c r="H44" t="n">
-        <v>173.0075763943325</v>
+        <v>127.006454377649</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>22.3995792457616</v>
+        <v>22.39957924576163</v>
       </c>
       <c r="T44" t="n">
-        <v>68.65451781152763</v>
+        <v>68.65451781152765</v>
       </c>
       <c r="U44" t="n">
         <v>101.0923853214139</v>
@@ -4040,10 +4040,10 @@
         <v>207.70674893126</v>
       </c>
       <c r="X44" t="n">
-        <v>181.0058851473221</v>
+        <v>227.0070071640066</v>
       </c>
       <c r="Y44" t="n">
-        <v>238.4036049602053</v>
+        <v>238.4036049602054</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.0509205994952</v>
+        <v>42.05092059949521</v>
       </c>
       <c r="S45" t="n">
         <v>146.1451240553701</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.51698308782102</v>
+        <v>30.51698308782105</v>
       </c>
       <c r="C46" t="n">
-        <v>16.7169779332215</v>
+        <v>16.71697793322153</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3383423307998896</v>
+        <v>0.338342330799918</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15.79633962590535</v>
+        <v>15.79633962590538</v>
       </c>
       <c r="H46" t="n">
-        <v>4.518911778953386</v>
+        <v>4.518911778953417</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.33751749000707</v>
+        <v>56.3375174900071</v>
       </c>
       <c r="T46" t="n">
-        <v>78.65570977187363</v>
+        <v>78.65570977187366</v>
       </c>
       <c r="U46" t="n">
         <v>133.1028845000648</v>
@@ -4198,10 +4198,10 @@
         <v>132.0920055580599</v>
       </c>
       <c r="X46" t="n">
-        <v>77.73710755386298</v>
+        <v>77.73710755386301</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.61197530993067</v>
+        <v>68.6119753099307</v>
       </c>
     </row>
   </sheetData>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D8" t="n">
         <v>21.02234760148574</v>
@@ -4802,19 +4802,19 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="L8" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M8" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N8" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O8" t="n">
         <v>40.03871513172544</v>
@@ -4826,28 +4826,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="S8" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="T8" t="n">
         <v>29.92792848229982</v>
       </c>
-      <c r="S8" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="T8" t="n">
-        <v>21.02234760148574</v>
-      </c>
       <c r="U8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
@@ -4890,43 +4890,43 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N9" t="n">
-        <v>10.3099691464193</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O9" t="n">
-        <v>20.21955114152135</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P9" t="n">
-        <v>30.12913313662339</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="S9" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T9" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U9" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V9" t="n">
         <v>10.91156095206012</v>
       </c>
       <c r="W9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="X9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C10" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D10" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="E10" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
         <v>0.8007743026345088</v>
@@ -4966,10 +4966,10 @@
         <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M10" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N10" t="n">
         <v>30.12913313662339</v>
@@ -4981,31 +4981,31 @@
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="R10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T10" t="n">
         <v>29.92792848229982</v>
       </c>
       <c r="U10" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="V10" t="n">
-        <v>21.02234760148574</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="W10" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="X10" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1205.131342661733</v>
+        <v>843.7417025577031</v>
       </c>
       <c r="C11" t="n">
-        <v>927.2025191335943</v>
+        <v>565.8128790295638</v>
       </c>
       <c r="D11" t="n">
-        <v>927.2025191335943</v>
+        <v>296.9938493958406</v>
       </c>
       <c r="E11" t="n">
-        <v>636.4217343787545</v>
+        <v>296.9938493958406</v>
       </c>
       <c r="F11" t="n">
-        <v>634.4457381546445</v>
+        <v>296.9938493958406</v>
       </c>
       <c r="G11" t="n">
-        <v>322.8677182127471</v>
+        <v>296.9938493958406</v>
       </c>
       <c r="H11" t="n">
-        <v>99.38739243862132</v>
+        <v>73.51352362171392</v>
       </c>
       <c r="I11" t="n">
         <v>50.6621943355383</v>
       </c>
       <c r="J11" t="n">
-        <v>50.6621943355383</v>
+        <v>166.0026172027344</v>
       </c>
       <c r="K11" t="n">
-        <v>355.7608071703319</v>
+        <v>471.1012300375281</v>
       </c>
       <c r="L11" t="n">
-        <v>784.2326219558543</v>
+        <v>738.5378671197077</v>
       </c>
       <c r="M11" t="n">
-        <v>1267.139731945813</v>
+        <v>1221.444977109667</v>
       </c>
       <c r="N11" t="n">
-        <v>1736.589955445012</v>
+        <v>1690.895200608865</v>
       </c>
       <c r="O11" t="n">
-        <v>2127.635500132524</v>
+        <v>2081.940745296378</v>
       </c>
       <c r="P11" t="n">
-        <v>2429.226365503838</v>
+        <v>2383.531610667691</v>
       </c>
       <c r="Q11" t="n">
         <v>2533.109716776915</v>
@@ -5066,25 +5066,25 @@
         <v>2533.109716776915</v>
       </c>
       <c r="S11" t="n">
-        <v>2533.109716776915</v>
+        <v>2461.758681051851</v>
       </c>
       <c r="T11" t="n">
-        <v>2415.03652088441</v>
+        <v>2343.685485159346</v>
       </c>
       <c r="U11" t="n">
-        <v>2264.197802254646</v>
+        <v>2192.846766529582</v>
       </c>
       <c r="V11" t="n">
-        <v>2031.223463289641</v>
+        <v>1959.872427564577</v>
       </c>
       <c r="W11" t="n">
-        <v>1772.693468286295</v>
+        <v>1701.342432561231</v>
       </c>
       <c r="X11" t="n">
-        <v>1494.668262946842</v>
+        <v>1423.317227221778</v>
       </c>
       <c r="Y11" t="n">
-        <v>1205.131342661733</v>
+        <v>1133.780306936669</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.4055622869208</v>
+        <v>917.4055622869197</v>
       </c>
       <c r="C12" t="n">
-        <v>755.7018895278757</v>
+        <v>755.7018895278744</v>
       </c>
       <c r="D12" t="n">
-        <v>616.8632525180876</v>
+        <v>616.8632525180865</v>
       </c>
       <c r="E12" t="n">
-        <v>469.8352425749588</v>
+        <v>469.8352425749578</v>
       </c>
       <c r="F12" t="n">
-        <v>335.141444524833</v>
+        <v>335.1414445248321</v>
       </c>
       <c r="G12" t="n">
-        <v>206.6917209587741</v>
+        <v>206.6917209587734</v>
       </c>
       <c r="H12" t="n">
-        <v>109.4462567347088</v>
+        <v>109.4462567347087</v>
       </c>
       <c r="I12" t="n">
         <v>50.6621943355383</v>
@@ -5121,10 +5121,10 @@
         <v>136.73046683787</v>
       </c>
       <c r="K12" t="n">
-        <v>410.3414722929556</v>
+        <v>410.3414722929557</v>
       </c>
       <c r="L12" t="n">
-        <v>835.488711182328</v>
+        <v>835.4887111823282</v>
       </c>
       <c r="M12" t="n">
         <v>1389.75200096488</v>
@@ -5133,37 +5133,37 @@
         <v>1972.079893773351</v>
       </c>
       <c r="O12" t="n">
-        <v>1986.190046706548</v>
+        <v>1986.190046706547</v>
       </c>
       <c r="P12" t="n">
-        <v>2340.460675440866</v>
+        <v>2340.460675440865</v>
       </c>
       <c r="Q12" t="n">
-        <v>2533.109716776915</v>
+        <v>2533.109716776914</v>
       </c>
       <c r="R12" t="n">
         <v>2490.634039403687</v>
       </c>
       <c r="S12" t="n">
-        <v>2343.012701974021</v>
+        <v>2343.01270197402</v>
       </c>
       <c r="T12" t="n">
         <v>2155.451262707521</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.974810859164</v>
+        <v>1936.974810859163</v>
       </c>
       <c r="V12" t="n">
-        <v>1708.579188307498</v>
+        <v>1708.579188307497</v>
       </c>
       <c r="W12" t="n">
-        <v>1467.263319540808</v>
+        <v>1467.263319540807</v>
       </c>
       <c r="X12" t="n">
-        <v>1269.346331418603</v>
+        <v>1269.346331418602</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.825005068182</v>
+        <v>1076.825005068181</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.9604462082296</v>
+        <v>412.96044620823</v>
       </c>
       <c r="C13" t="n">
-        <v>347.3494118089633</v>
+        <v>347.3494118089636</v>
       </c>
       <c r="D13" t="n">
-        <v>298.2824537757793</v>
+        <v>298.2824537757797</v>
       </c>
       <c r="E13" t="n">
-        <v>250.2783746761515</v>
+        <v>250.2783746761518</v>
       </c>
       <c r="F13" t="n">
-        <v>201.802654840982</v>
+        <v>201.8026548409822</v>
       </c>
       <c r="G13" t="n">
-        <v>137.1215581258734</v>
+        <v>137.1215581258735</v>
       </c>
       <c r="H13" t="n">
-        <v>83.83180267031226</v>
+        <v>83.8318026703123</v>
       </c>
       <c r="I13" t="n">
         <v>50.6621943355383</v>
@@ -5200,13 +5200,13 @@
         <v>109.9302847846532</v>
       </c>
       <c r="K13" t="n">
-        <v>272.0829922252226</v>
+        <v>272.0829922252224</v>
       </c>
       <c r="L13" t="n">
-        <v>508.681147863363</v>
+        <v>508.6811478633628</v>
       </c>
       <c r="M13" t="n">
-        <v>764.5169984901208</v>
+        <v>764.5169984901206</v>
       </c>
       <c r="N13" t="n">
         <v>1019.927893977209</v>
@@ -5218,31 +5218,31 @@
         <v>1445.312378684135</v>
       </c>
       <c r="Q13" t="n">
-        <v>1528.658305667047</v>
+        <v>1528.658305667046</v>
       </c>
       <c r="R13" t="n">
         <v>1493.650215638012</v>
       </c>
       <c r="S13" t="n">
-        <v>1388.01843421169</v>
+        <v>1388.018434211689</v>
       </c>
       <c r="T13" t="n">
         <v>1259.843024217825</v>
       </c>
       <c r="U13" t="n">
-        <v>1076.670468033869</v>
+        <v>1076.670468033868</v>
       </c>
       <c r="V13" t="n">
-        <v>919.9400987313441</v>
+        <v>919.9400987313445</v>
       </c>
       <c r="W13" t="n">
-        <v>737.7886323877965</v>
+        <v>737.788632387797</v>
       </c>
       <c r="X13" t="n">
-        <v>610.5411034222257</v>
+        <v>610.541103422226</v>
       </c>
       <c r="Y13" t="n">
-        <v>492.5108797535561</v>
+        <v>492.5108797535563</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1423.317227221781</v>
+        <v>901.8330033972468</v>
       </c>
       <c r="C14" t="n">
-        <v>1280.711482319858</v>
+        <v>901.8330033972468</v>
       </c>
       <c r="D14" t="n">
-        <v>1011.892452686135</v>
+        <v>633.0139737635236</v>
       </c>
       <c r="E14" t="n">
-        <v>721.1116679312954</v>
+        <v>633.0139737635236</v>
       </c>
       <c r="F14" t="n">
-        <v>410.9654123805192</v>
+        <v>322.8677182127473</v>
       </c>
       <c r="G14" t="n">
-        <v>99.38739243862139</v>
+        <v>322.8677182127473</v>
       </c>
       <c r="H14" t="n">
-        <v>99.38739243862139</v>
+        <v>99.38739243862135</v>
       </c>
       <c r="I14" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="J14" t="n">
-        <v>154.5455456086185</v>
+        <v>166.0026172027344</v>
       </c>
       <c r="K14" t="n">
-        <v>459.6441584434122</v>
+        <v>471.101230037528</v>
       </c>
       <c r="L14" t="n">
-        <v>888.1159732289344</v>
+        <v>899.5730448230503</v>
       </c>
       <c r="M14" t="n">
-        <v>1371.023083218893</v>
+        <v>1382.480154813009</v>
       </c>
       <c r="N14" t="n">
-        <v>1840.473306718092</v>
+        <v>1840.473306718088</v>
       </c>
       <c r="O14" t="n">
-        <v>2231.518851405604</v>
+        <v>2231.518851405601</v>
       </c>
       <c r="P14" t="n">
-        <v>2533.109716776918</v>
+        <v>2533.109716776915</v>
       </c>
       <c r="Q14" t="n">
-        <v>2533.109716776918</v>
+        <v>2533.109716776915</v>
       </c>
       <c r="R14" t="n">
-        <v>2533.109716776918</v>
+        <v>2533.109716776915</v>
       </c>
       <c r="S14" t="n">
-        <v>2461.758681051854</v>
+        <v>2461.758681051851</v>
       </c>
       <c r="T14" t="n">
-        <v>2343.685485159349</v>
+        <v>2343.685485159346</v>
       </c>
       <c r="U14" t="n">
-        <v>2192.846766529586</v>
+        <v>2192.846766529582</v>
       </c>
       <c r="V14" t="n">
-        <v>1959.87242756458</v>
+        <v>1959.872427564577</v>
       </c>
       <c r="W14" t="n">
-        <v>1701.342432561235</v>
+        <v>1701.342432561231</v>
       </c>
       <c r="X14" t="n">
-        <v>1423.317227221781</v>
+        <v>1481.408528061321</v>
       </c>
       <c r="Y14" t="n">
-        <v>1423.317227221781</v>
+        <v>1191.871607776213</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>917.4055622869199</v>
+        <v>917.4055622869197</v>
       </c>
       <c r="C15" t="n">
-        <v>755.7018895278746</v>
+        <v>755.7018895278744</v>
       </c>
       <c r="D15" t="n">
-        <v>616.8632525180867</v>
+        <v>616.8632525180865</v>
       </c>
       <c r="E15" t="n">
-        <v>469.8352425749579</v>
+        <v>469.8352425749578</v>
       </c>
       <c r="F15" t="n">
-        <v>335.1414445248322</v>
+        <v>335.1414445248321</v>
       </c>
       <c r="G15" t="n">
-        <v>206.6917209587735</v>
+        <v>206.6917209587734</v>
       </c>
       <c r="H15" t="n">
-        <v>109.4462567347088</v>
+        <v>109.4462567347087</v>
       </c>
       <c r="I15" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="J15" t="n">
         <v>136.73046683787</v>
       </c>
       <c r="K15" t="n">
-        <v>410.3414722929557</v>
+        <v>410.3414722929556</v>
       </c>
       <c r="L15" t="n">
-        <v>835.4887111823281</v>
+        <v>835.488711182328</v>
       </c>
       <c r="M15" t="n">
         <v>1389.75200096488</v>
@@ -5416,10 +5416,10 @@
         <v>347.3494118089635</v>
       </c>
       <c r="D16" t="n">
-        <v>298.2824537757796</v>
+        <v>298.2824537757795</v>
       </c>
       <c r="E16" t="n">
-        <v>250.2783746761518</v>
+        <v>250.2783746761517</v>
       </c>
       <c r="F16" t="n">
         <v>201.8026548409821</v>
@@ -5428,22 +5428,22 @@
         <v>137.1215581258735</v>
       </c>
       <c r="H16" t="n">
-        <v>83.8318026703123</v>
+        <v>83.83180267031233</v>
       </c>
       <c r="I16" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="J16" t="n">
-        <v>109.9302847846533</v>
+        <v>109.9302847846532</v>
       </c>
       <c r="K16" t="n">
-        <v>272.0829922252227</v>
+        <v>272.0829922252225</v>
       </c>
       <c r="L16" t="n">
-        <v>508.6811478633625</v>
+        <v>508.6811478633629</v>
       </c>
       <c r="M16" t="n">
-        <v>764.5169984901205</v>
+        <v>764.5169984901206</v>
       </c>
       <c r="N16" t="n">
         <v>1019.927893977209</v>
@@ -5455,31 +5455,31 @@
         <v>1445.312378684135</v>
       </c>
       <c r="Q16" t="n">
-        <v>1528.658305667046</v>
+        <v>1528.658305667047</v>
       </c>
       <c r="R16" t="n">
-        <v>1493.650215638011</v>
+        <v>1493.650215638012</v>
       </c>
       <c r="S16" t="n">
-        <v>1388.018434211689</v>
+        <v>1388.01843421169</v>
       </c>
       <c r="T16" t="n">
-        <v>1259.843024217824</v>
+        <v>1259.843024217825</v>
       </c>
       <c r="U16" t="n">
-        <v>1076.670468033868</v>
+        <v>1076.670468033869</v>
       </c>
       <c r="V16" t="n">
-        <v>919.9400987313441</v>
+        <v>919.9400987313447</v>
       </c>
       <c r="W16" t="n">
-        <v>737.7886323877966</v>
+        <v>737.7886323877972</v>
       </c>
       <c r="X16" t="n">
-        <v>610.5411034222258</v>
+        <v>610.5411034222259</v>
       </c>
       <c r="Y16" t="n">
-        <v>492.5108797535562</v>
+        <v>492.5108797535563</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>1352.115263107039</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.733134647567</v>
+        <v>1137.733134647566</v>
       </c>
       <c r="D17" t="n">
-        <v>932.4608000825108</v>
+        <v>932.4608000825101</v>
       </c>
       <c r="E17" t="n">
-        <v>705.2267103963377</v>
+        <v>705.2267103963372</v>
       </c>
       <c r="F17" t="n">
-        <v>458.6271499142281</v>
+        <v>458.6271499142279</v>
       </c>
       <c r="G17" t="n">
-        <v>210.5958250409977</v>
+        <v>210.5958250409973</v>
       </c>
       <c r="H17" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="I17" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="J17" t="n">
-        <v>50.66219433553836</v>
+        <v>166.0026172027344</v>
       </c>
       <c r="K17" t="n">
-        <v>355.760807170332</v>
+        <v>471.101230037528</v>
       </c>
       <c r="L17" t="n">
-        <v>784.2326219558543</v>
+        <v>738.5378671197078</v>
       </c>
       <c r="M17" t="n">
-        <v>1267.139731945813</v>
+        <v>1221.444977109667</v>
       </c>
       <c r="N17" t="n">
-        <v>1736.589955445012</v>
+        <v>1690.895200608865</v>
       </c>
       <c r="O17" t="n">
-        <v>2127.635500132524</v>
+        <v>2081.940745296378</v>
       </c>
       <c r="P17" t="n">
-        <v>2429.226365503838</v>
+        <v>2383.531610667691</v>
       </c>
       <c r="Q17" t="n">
-        <v>2533.109716776918</v>
+        <v>2533.109716776915</v>
       </c>
       <c r="R17" t="n">
-        <v>2533.109716776918</v>
+        <v>2533.109716776915</v>
       </c>
       <c r="S17" t="n">
-        <v>2525.30537612052</v>
+        <v>2525.305376120517</v>
       </c>
       <c r="T17" t="n">
-        <v>2470.778875296682</v>
+        <v>2470.778875296679</v>
       </c>
       <c r="U17" t="n">
-        <v>2383.486851735585</v>
+        <v>2383.486851735583</v>
       </c>
       <c r="V17" t="n">
-        <v>2214.059207839246</v>
+        <v>2214.059207839244</v>
       </c>
       <c r="W17" t="n">
-        <v>2019.075907904567</v>
+        <v>2019.075907904566</v>
       </c>
       <c r="X17" t="n">
-        <v>1804.59739763378</v>
+        <v>1804.597397633779</v>
       </c>
       <c r="Y17" t="n">
-        <v>1578.607172417338</v>
+        <v>1578.607172417337</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>917.4055622869199</v>
+        <v>917.4055622869197</v>
       </c>
       <c r="C18" t="n">
-        <v>755.7018895278746</v>
+        <v>755.7018895278744</v>
       </c>
       <c r="D18" t="n">
-        <v>616.8632525180867</v>
+        <v>616.8632525180865</v>
       </c>
       <c r="E18" t="n">
-        <v>469.8352425749579</v>
+        <v>469.8352425749578</v>
       </c>
       <c r="F18" t="n">
-        <v>335.1414445248322</v>
+        <v>335.1414445248321</v>
       </c>
       <c r="G18" t="n">
-        <v>206.6917209587735</v>
+        <v>206.6917209587734</v>
       </c>
       <c r="H18" t="n">
-        <v>109.4462567347088</v>
+        <v>109.4462567347087</v>
       </c>
       <c r="I18" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="J18" t="n">
         <v>136.73046683787</v>
       </c>
       <c r="K18" t="n">
-        <v>410.3414722929557</v>
+        <v>410.3414722929556</v>
       </c>
       <c r="L18" t="n">
-        <v>835.4887111823281</v>
+        <v>835.488711182328</v>
       </c>
       <c r="M18" t="n">
-        <v>946.6541305336099</v>
+        <v>1389.75200096488</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.982023342081</v>
+        <v>1721.631064678131</v>
       </c>
       <c r="O18" t="n">
-        <v>1986.190046706547</v>
+        <v>2178.839088042597</v>
       </c>
       <c r="P18" t="n">
-        <v>2340.460675440865</v>
+        <v>2533.109716776915</v>
       </c>
       <c r="Q18" t="n">
         <v>2533.109716776914</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>202.1166577758549</v>
+        <v>53.86093531257934</v>
       </c>
       <c r="C19" t="n">
-        <v>200.0523184452552</v>
+        <v>51.79659598197996</v>
       </c>
       <c r="D19" t="n">
-        <v>200.0523184452552</v>
+        <v>51.79659598197996</v>
       </c>
       <c r="E19" t="n">
-        <v>200.0523184452552</v>
+        <v>51.79659598197996</v>
       </c>
       <c r="F19" t="n">
-        <v>200.0523184452552</v>
+        <v>51.79659598197996</v>
       </c>
       <c r="G19" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="H19" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="I19" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="J19" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="K19" t="n">
         <v>110.8796648463215</v>
       </c>
       <c r="L19" t="n">
-        <v>245.5425835546757</v>
+        <v>245.5425835546756</v>
       </c>
       <c r="M19" t="n">
-        <v>399.4431972516473</v>
+        <v>399.4431972516472</v>
       </c>
       <c r="N19" t="n">
-        <v>552.9188558089497</v>
+        <v>552.9188558089495</v>
       </c>
       <c r="O19" t="n">
-        <v>683.7599139202842</v>
+        <v>683.759913920284</v>
       </c>
       <c r="P19" t="n">
-        <v>774.4328666563033</v>
+        <v>774.4328666563031</v>
       </c>
       <c r="Q19" t="n">
-        <v>774.4328666563033</v>
+        <v>774.4328666563031</v>
       </c>
       <c r="R19" t="n">
-        <v>774.4328666563033</v>
+        <v>774.4328666563031</v>
       </c>
       <c r="S19" t="n">
         <v>732.3477802986475</v>
       </c>
       <c r="T19" t="n">
-        <v>667.7190653734498</v>
+        <v>667.71906537345</v>
       </c>
       <c r="U19" t="n">
-        <v>548.09320425816</v>
+        <v>399.837481794883</v>
       </c>
       <c r="V19" t="n">
-        <v>454.9095300243026</v>
+        <v>306.6538075610259</v>
       </c>
       <c r="W19" t="n">
-        <v>336.3047587494218</v>
+        <v>188.0490362861454</v>
       </c>
       <c r="X19" t="n">
-        <v>272.6039248525175</v>
+        <v>124.3482023892414</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.1203962525147</v>
+        <v>69.86467378923885</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1352.11526310704</v>
+        <v>1352.115263107039</v>
       </c>
       <c r="C20" t="n">
         <v>1137.733134647567</v>
       </c>
       <c r="D20" t="n">
-        <v>932.4608000825109</v>
+        <v>932.4608000825106</v>
       </c>
       <c r="E20" t="n">
         <v>705.2267103963378</v>
       </c>
       <c r="F20" t="n">
-        <v>458.6271499142282</v>
+        <v>458.6271499142285</v>
       </c>
       <c r="G20" t="n">
-        <v>210.5958250409977</v>
+        <v>210.5958250409973</v>
       </c>
       <c r="H20" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="I20" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="J20" t="n">
-        <v>50.66219433553836</v>
+        <v>166.0026172027344</v>
       </c>
       <c r="K20" t="n">
-        <v>355.760807170332</v>
+        <v>310.0660523341855</v>
       </c>
       <c r="L20" t="n">
-        <v>784.2326219558543</v>
+        <v>738.5378671197078</v>
       </c>
       <c r="M20" t="n">
-        <v>1267.139731945813</v>
+        <v>1221.444977109667</v>
       </c>
       <c r="N20" t="n">
-        <v>1736.589955445012</v>
+        <v>1690.895200608865</v>
       </c>
       <c r="O20" t="n">
-        <v>2127.635500132524</v>
+        <v>2081.940745296378</v>
       </c>
       <c r="P20" t="n">
-        <v>2383.531610667695</v>
+        <v>2383.531610667691</v>
       </c>
       <c r="Q20" t="n">
-        <v>2533.109716776918</v>
+        <v>2533.109716776915</v>
       </c>
       <c r="R20" t="n">
-        <v>2533.109716776918</v>
+        <v>2533.109716776915</v>
       </c>
       <c r="S20" t="n">
-        <v>2525.30537612052</v>
+        <v>2525.305376120517</v>
       </c>
       <c r="T20" t="n">
-        <v>2470.778875296682</v>
+        <v>2470.778875296679</v>
       </c>
       <c r="U20" t="n">
-        <v>2383.486851735585</v>
+        <v>2383.486851735583</v>
       </c>
       <c r="V20" t="n">
-        <v>2214.059207839247</v>
+        <v>2214.059207839244</v>
       </c>
       <c r="W20" t="n">
-        <v>2019.075907904568</v>
+        <v>2019.075907904565</v>
       </c>
       <c r="X20" t="n">
-        <v>1804.597397633781</v>
+        <v>1804.597397633779</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.607172417339</v>
+        <v>1578.607172417338</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>917.4055622869199</v>
+        <v>917.4055622869208</v>
       </c>
       <c r="C21" t="n">
-        <v>755.7018895278746</v>
+        <v>755.7018895278757</v>
       </c>
       <c r="D21" t="n">
-        <v>616.8632525180867</v>
+        <v>616.8632525180876</v>
       </c>
       <c r="E21" t="n">
-        <v>469.8352425749579</v>
+        <v>469.8352425749588</v>
       </c>
       <c r="F21" t="n">
-        <v>335.1414445248322</v>
+        <v>335.141444524833</v>
       </c>
       <c r="G21" t="n">
-        <v>206.6917209587735</v>
+        <v>206.6917209587741</v>
       </c>
       <c r="H21" t="n">
-        <v>109.4462567347088</v>
+        <v>109.4462567347087</v>
       </c>
       <c r="I21" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="J21" t="n">
         <v>136.73046683787</v>
       </c>
       <c r="K21" t="n">
-        <v>410.3414722929557</v>
+        <v>410.3414722929556</v>
       </c>
       <c r="L21" t="n">
-        <v>835.4887111823281</v>
+        <v>410.3414722929556</v>
       </c>
       <c r="M21" t="n">
-        <v>1389.75200096488</v>
+        <v>964.6047620755072</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.982023342081</v>
+        <v>1528.982023342082</v>
       </c>
       <c r="O21" t="n">
-        <v>1986.190046706547</v>
+        <v>1986.190046706548</v>
       </c>
       <c r="P21" t="n">
-        <v>2340.460675440865</v>
+        <v>2340.460675440866</v>
       </c>
       <c r="Q21" t="n">
-        <v>2533.109716776914</v>
+        <v>2533.109716776915</v>
       </c>
       <c r="R21" t="n">
         <v>2490.634039403687</v>
       </c>
       <c r="S21" t="n">
-        <v>2343.01270197402</v>
+        <v>2343.012701974021</v>
       </c>
       <c r="T21" t="n">
         <v>2155.451262707521</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.974810859163</v>
+        <v>1936.974810859164</v>
       </c>
       <c r="V21" t="n">
-        <v>1708.579188307497</v>
+        <v>1708.579188307498</v>
       </c>
       <c r="W21" t="n">
-        <v>1467.263319540807</v>
+        <v>1467.263319540808</v>
       </c>
       <c r="X21" t="n">
-        <v>1269.346331418602</v>
+        <v>1269.346331418603</v>
       </c>
       <c r="Y21" t="n">
-        <v>1076.825005068181</v>
+        <v>1076.825005068182</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>202.1166577758549</v>
+        <v>53.86093531257934</v>
       </c>
       <c r="C22" t="n">
-        <v>200.0523184452552</v>
+        <v>51.79659598197996</v>
       </c>
       <c r="D22" t="n">
-        <v>200.0523184452552</v>
+        <v>51.79659598197996</v>
       </c>
       <c r="E22" t="n">
-        <v>200.0523184452552</v>
+        <v>51.79659598197996</v>
       </c>
       <c r="F22" t="n">
-        <v>51.7965959819803</v>
+        <v>51.79659598197996</v>
       </c>
       <c r="G22" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="H22" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="I22" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="J22" t="n">
-        <v>50.66219433553836</v>
+        <v>50.6621943355383</v>
       </c>
       <c r="K22" t="n">
         <v>110.8796648463215</v>
       </c>
       <c r="L22" t="n">
-        <v>245.5425835546757</v>
+        <v>245.5425835546756</v>
       </c>
       <c r="M22" t="n">
-        <v>399.4431972516473</v>
+        <v>399.4431972516472</v>
       </c>
       <c r="N22" t="n">
-        <v>552.9188558089497</v>
+        <v>552.9188558089495</v>
       </c>
       <c r="O22" t="n">
-        <v>683.7599139202842</v>
+        <v>683.759913920284</v>
       </c>
       <c r="P22" t="n">
-        <v>774.4328666563033</v>
+        <v>774.4328666563031</v>
       </c>
       <c r="Q22" t="n">
-        <v>774.4328666563033</v>
+        <v>774.4328666563031</v>
       </c>
       <c r="R22" t="n">
-        <v>774.4328666563033</v>
+        <v>635.4198414882152</v>
       </c>
       <c r="S22" t="n">
-        <v>732.3477802986475</v>
+        <v>584.09205783537</v>
       </c>
       <c r="T22" t="n">
-        <v>667.7190653734498</v>
+        <v>519.4633429101725</v>
       </c>
       <c r="U22" t="n">
-        <v>548.09320425816</v>
+        <v>399.837481794883</v>
       </c>
       <c r="V22" t="n">
-        <v>454.9095300243026</v>
+        <v>306.6538075610259</v>
       </c>
       <c r="W22" t="n">
-        <v>336.3047587494218</v>
+        <v>188.0490362861454</v>
       </c>
       <c r="X22" t="n">
-        <v>272.6039248525175</v>
+        <v>124.3482023892414</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.1203962525147</v>
+        <v>69.86467378923885</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1352.11526310704</v>
+        <v>1352.115263107038</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.733134647567</v>
+        <v>1137.733134647566</v>
       </c>
       <c r="D23" t="n">
-        <v>932.4608000825108</v>
+        <v>932.4608000825094</v>
       </c>
       <c r="E23" t="n">
-        <v>705.2267103963377</v>
+        <v>705.2267103963366</v>
       </c>
       <c r="F23" t="n">
-        <v>458.6271499142281</v>
+        <v>458.6271499142272</v>
       </c>
       <c r="G23" t="n">
-        <v>210.5958250409977</v>
+        <v>210.5958250409973</v>
       </c>
       <c r="H23" t="n">
-        <v>50.66219433553836</v>
+        <v>50.66219433553828</v>
       </c>
       <c r="I23" t="n">
-        <v>50.66219433553836</v>
+        <v>50.66219433553828</v>
       </c>
       <c r="J23" t="n">
-        <v>50.66219433553836</v>
+        <v>166.0026172027343</v>
       </c>
       <c r="K23" t="n">
-        <v>355.760807170332</v>
+        <v>471.101230037528</v>
       </c>
       <c r="L23" t="n">
-        <v>784.2326219558543</v>
+        <v>899.5730448230503</v>
       </c>
       <c r="M23" t="n">
-        <v>1267.139731945813</v>
+        <v>1382.480154813009</v>
       </c>
       <c r="N23" t="n">
-        <v>1736.589955445012</v>
+        <v>1851.930378312207</v>
       </c>
       <c r="O23" t="n">
-        <v>2127.635500132524</v>
+        <v>2242.97592299972</v>
       </c>
       <c r="P23" t="n">
-        <v>2429.226365503838</v>
+        <v>2383.531610667691</v>
       </c>
       <c r="Q23" t="n">
-        <v>2533.109716776918</v>
+        <v>2533.109716776914</v>
       </c>
       <c r="R23" t="n">
-        <v>2533.109716776918</v>
+        <v>2533.109716776914</v>
       </c>
       <c r="S23" t="n">
-        <v>2525.30537612052</v>
+        <v>2525.305376120516</v>
       </c>
       <c r="T23" t="n">
-        <v>2470.778875296683</v>
+        <v>2470.778875296679</v>
       </c>
       <c r="U23" t="n">
-        <v>2383.486851735585</v>
+        <v>2383.486851735582</v>
       </c>
       <c r="V23" t="n">
-        <v>2214.059207839246</v>
+        <v>2214.059207839244</v>
       </c>
       <c r="W23" t="n">
-        <v>2019.075907904568</v>
+        <v>2019.075907904565</v>
       </c>
       <c r="X23" t="n">
-        <v>1804.597397633781</v>
+        <v>1804.597397633779</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.607172417339</v>
+        <v>1578.607172417337</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>917.4055622869199</v>
+        <v>917.4055622869197</v>
       </c>
       <c r="C24" t="n">
-        <v>755.7018895278746</v>
+        <v>755.7018895278744</v>
       </c>
       <c r="D24" t="n">
-        <v>616.8632525180867</v>
+        <v>616.8632525180865</v>
       </c>
       <c r="E24" t="n">
-        <v>469.8352425749579</v>
+        <v>469.8352425749578</v>
       </c>
       <c r="F24" t="n">
-        <v>335.1414445248322</v>
+        <v>335.1414445248321</v>
       </c>
       <c r="G24" t="n">
-        <v>206.6917209587735</v>
+        <v>206.6917209587734</v>
       </c>
       <c r="H24" t="n">
-        <v>109.4462567347088</v>
+        <v>109.4462567347087</v>
       </c>
       <c r="I24" t="n">
-        <v>50.66219433553836</v>
+        <v>50.66219433553828</v>
       </c>
       <c r="J24" t="n">
         <v>136.73046683787</v>
       </c>
       <c r="K24" t="n">
-        <v>410.3414722929557</v>
+        <v>410.3414722929556</v>
       </c>
       <c r="L24" t="n">
-        <v>835.4887111823281</v>
+        <v>410.3414722929556</v>
       </c>
       <c r="M24" t="n">
-        <v>1389.75200096488</v>
+        <v>964.6047620755072</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.982023342081</v>
+        <v>1546.932654883978</v>
       </c>
       <c r="O24" t="n">
-        <v>1986.190046706547</v>
+        <v>2004.140678248445</v>
       </c>
       <c r="P24" t="n">
-        <v>2340.460675440865</v>
+        <v>2358.411306982762</v>
       </c>
       <c r="Q24" t="n">
         <v>2533.109716776914</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.86093531257998</v>
+        <v>53.86093531257933</v>
       </c>
       <c r="C25" t="n">
-        <v>51.7965959819803</v>
+        <v>51.79659598197994</v>
       </c>
       <c r="D25" t="n">
-        <v>51.7965959819803</v>
+        <v>51.79659598197994</v>
       </c>
       <c r="E25" t="n">
-        <v>51.7965959819803</v>
+        <v>51.79659598197994</v>
       </c>
       <c r="F25" t="n">
-        <v>51.7965959819803</v>
+        <v>51.79659598197994</v>
       </c>
       <c r="G25" t="n">
-        <v>50.66219433553836</v>
+        <v>50.66219433553828</v>
       </c>
       <c r="H25" t="n">
-        <v>50.66219433553836</v>
+        <v>50.66219433553828</v>
       </c>
       <c r="I25" t="n">
-        <v>50.66219433553836</v>
+        <v>50.66219433553828</v>
       </c>
       <c r="J25" t="n">
-        <v>50.66219433553836</v>
+        <v>50.66219433553828</v>
       </c>
       <c r="K25" t="n">
-        <v>110.8796648463215</v>
+        <v>110.8796648463214</v>
       </c>
       <c r="L25" t="n">
-        <v>245.5425835546757</v>
+        <v>245.5425835546756</v>
       </c>
       <c r="M25" t="n">
-        <v>399.4431972516473</v>
+        <v>399.4431972516472</v>
       </c>
       <c r="N25" t="n">
-        <v>552.9188558089497</v>
+        <v>552.9188558089495</v>
       </c>
       <c r="O25" t="n">
-        <v>683.7599139202842</v>
+        <v>683.759913920284</v>
       </c>
       <c r="P25" t="n">
-        <v>774.4328666563033</v>
+        <v>774.4328666563031</v>
       </c>
       <c r="Q25" t="n">
-        <v>774.4328666563033</v>
+        <v>774.4328666563031</v>
       </c>
       <c r="R25" t="n">
-        <v>774.4328666563033</v>
+        <v>635.4198414882152</v>
       </c>
       <c r="S25" t="n">
-        <v>584.0920578353727</v>
+        <v>593.3347551305596</v>
       </c>
       <c r="T25" t="n">
-        <v>519.4633429101749</v>
+        <v>519.4633429101725</v>
       </c>
       <c r="U25" t="n">
-        <v>399.8374817948851</v>
+        <v>399.837481794883</v>
       </c>
       <c r="V25" t="n">
-        <v>306.6538075610277</v>
+        <v>306.6538075610259</v>
       </c>
       <c r="W25" t="n">
-        <v>188.0490362861469</v>
+        <v>188.0490362861454</v>
       </c>
       <c r="X25" t="n">
-        <v>124.3482023892427</v>
+        <v>124.3482023892414</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.86467378923977</v>
+        <v>69.86467378923884</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1755.53378980567</v>
+        <v>1522.559450840672</v>
       </c>
       <c r="C26" t="n">
-        <v>1477.60496627753</v>
+        <v>1244.630627312532</v>
       </c>
       <c r="D26" t="n">
-        <v>1248.94913342592</v>
+        <v>975.8115976788092</v>
       </c>
       <c r="E26" t="n">
-        <v>958.16834867108</v>
+        <v>685.0308129239694</v>
       </c>
       <c r="F26" t="n">
-        <v>648.0220931203037</v>
+        <v>648.0220931203041</v>
       </c>
       <c r="G26" t="n">
-        <v>336.4440731784065</v>
+        <v>336.4440731784067</v>
       </c>
       <c r="H26" t="n">
-        <v>112.9637474042805</v>
+        <v>112.9637474042807</v>
       </c>
       <c r="I26" t="n">
-        <v>64.23854930119751</v>
+        <v>64.23854930119766</v>
       </c>
       <c r="J26" t="n">
-        <v>281.5142090981798</v>
+        <v>179.5789721683937</v>
       </c>
       <c r="K26" t="n">
-        <v>688.5480588627597</v>
+        <v>535.9642697471565</v>
       </c>
       <c r="L26" t="n">
-        <v>1117.019873648282</v>
+        <v>1066.371321462465</v>
       </c>
       <c r="M26" t="n">
-        <v>1701.862220568027</v>
+        <v>1549.278431452424</v>
       </c>
       <c r="N26" t="n">
-        <v>2273.247680997012</v>
+        <v>2120.663891881408</v>
       </c>
       <c r="O26" t="n">
-        <v>2664.293225684525</v>
+        <v>2613.644673498707</v>
       </c>
       <c r="P26" t="n">
-        <v>3017.170775799799</v>
+        <v>2915.235538870021</v>
       </c>
       <c r="Q26" t="n">
-        <v>3166.748881909022</v>
+        <v>3166.74888190903</v>
       </c>
       <c r="R26" t="n">
-        <v>3211.927465059875</v>
+        <v>3211.927465059883</v>
       </c>
       <c r="S26" t="n">
-        <v>3140.576429334811</v>
+        <v>3140.576429334819</v>
       </c>
       <c r="T26" t="n">
-        <v>3022.503233442306</v>
+        <v>3022.503233442314</v>
       </c>
       <c r="U26" t="n">
-        <v>2871.664514812544</v>
+        <v>2871.66451481255</v>
       </c>
       <c r="V26" t="n">
-        <v>2871.664514812544</v>
+        <v>2638.690175847545</v>
       </c>
       <c r="W26" t="n">
-        <v>2613.134519809198</v>
+        <v>2380.160180844199</v>
       </c>
       <c r="X26" t="n">
-        <v>2335.109314469744</v>
+        <v>2102.134975504746</v>
       </c>
       <c r="Y26" t="n">
-        <v>2045.572394184635</v>
+        <v>1812.598055219637</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>930.9819172525789</v>
+        <v>930.9819172525791</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2782444935336</v>
+        <v>769.2782444935339</v>
       </c>
       <c r="D27" t="n">
-        <v>630.4396074837457</v>
+        <v>630.4396074837459</v>
       </c>
       <c r="E27" t="n">
-        <v>483.411597540617</v>
+        <v>483.4115975406172</v>
       </c>
       <c r="F27" t="n">
-        <v>348.7177994904914</v>
+        <v>348.7177994904915</v>
       </c>
       <c r="G27" t="n">
-        <v>220.2680759244327</v>
+        <v>220.2680759244328</v>
       </c>
       <c r="H27" t="n">
-        <v>123.0226117003679</v>
+        <v>123.0226117003681</v>
       </c>
       <c r="I27" t="n">
-        <v>64.23854930119751</v>
+        <v>64.23854930119766</v>
       </c>
       <c r="J27" t="n">
-        <v>150.3068218035292</v>
+        <v>64.23854930119766</v>
       </c>
       <c r="K27" t="n">
-        <v>423.9178272586149</v>
+        <v>337.8495547562833</v>
       </c>
       <c r="L27" t="n">
-        <v>849.0650661479874</v>
+        <v>762.9967936456558</v>
       </c>
       <c r="M27" t="n">
-        <v>960.2304854992689</v>
+        <v>960.2304854992693</v>
       </c>
       <c r="N27" t="n">
         <v>1542.55837830774</v>
       </c>
       <c r="O27" t="n">
-        <v>1999.766401672206</v>
+        <v>1999.766401672207</v>
       </c>
       <c r="P27" t="n">
-        <v>2354.037030406524</v>
+        <v>2354.037030406525</v>
       </c>
       <c r="Q27" t="n">
         <v>2546.686071742573</v>
@@ -6336,13 +6336,13 @@
         <v>2169.02761767318</v>
       </c>
       <c r="U27" t="n">
-        <v>1950.551165824822</v>
+        <v>1950.551165824823</v>
       </c>
       <c r="V27" t="n">
-        <v>1722.155543273156</v>
+        <v>1722.155543273157</v>
       </c>
       <c r="W27" t="n">
-        <v>1480.839674506466</v>
+        <v>1480.839674506467</v>
       </c>
       <c r="X27" t="n">
         <v>1282.922686384261</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>426.5368011738891</v>
+        <v>426.5368011738892</v>
       </c>
       <c r="C28" t="n">
-        <v>360.9257667746227</v>
+        <v>360.9257667746228</v>
       </c>
       <c r="D28" t="n">
-        <v>311.8588087414388</v>
+        <v>311.8588087414389</v>
       </c>
       <c r="E28" t="n">
-        <v>263.854729641811</v>
+        <v>263.8547296418111</v>
       </c>
       <c r="F28" t="n">
         <v>215.3790098066415</v>
@@ -6376,19 +6376,19 @@
         <v>150.6979130915329</v>
       </c>
       <c r="H28" t="n">
-        <v>97.40815763597155</v>
+        <v>97.40815763597166</v>
       </c>
       <c r="I28" t="n">
-        <v>64.23854930119751</v>
+        <v>64.23854930119766</v>
       </c>
       <c r="J28" t="n">
-        <v>123.5066397503124</v>
+        <v>123.5066397503125</v>
       </c>
       <c r="K28" t="n">
-        <v>285.6593471908814</v>
+        <v>285.6593471908818</v>
       </c>
       <c r="L28" t="n">
-        <v>522.2575028290217</v>
+        <v>522.2575028290221</v>
       </c>
       <c r="M28" t="n">
         <v>778.0933534557798</v>
@@ -6403,31 +6403,31 @@
         <v>1458.888733649794</v>
       </c>
       <c r="Q28" t="n">
-        <v>1542.234660632705</v>
+        <v>1542.234660632706</v>
       </c>
       <c r="R28" t="n">
         <v>1507.226570603671</v>
       </c>
       <c r="S28" t="n">
-        <v>1401.594789177348</v>
+        <v>1401.594789177349</v>
       </c>
       <c r="T28" t="n">
         <v>1273.419379183484</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.246822999527</v>
+        <v>1090.246822999528</v>
       </c>
       <c r="V28" t="n">
-        <v>933.5164536970035</v>
+        <v>933.5164536970038</v>
       </c>
       <c r="W28" t="n">
-        <v>751.3649873534559</v>
+        <v>751.3649873534563</v>
       </c>
       <c r="X28" t="n">
-        <v>624.1174583878851</v>
+        <v>624.1174583878853</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0872347192156</v>
+        <v>506.0872347192157</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1522.559450840663</v>
+        <v>1522.559450840671</v>
       </c>
       <c r="C29" t="n">
-        <v>1244.630627312524</v>
+        <v>1244.630627312532</v>
       </c>
       <c r="D29" t="n">
-        <v>975.8115976788008</v>
+        <v>975.8115976788087</v>
       </c>
       <c r="E29" t="n">
-        <v>685.0308129239611</v>
+        <v>685.0308129239688</v>
       </c>
       <c r="F29" t="n">
-        <v>599.2968950172203</v>
+        <v>648.0220931203041</v>
       </c>
       <c r="G29" t="n">
-        <v>287.7188750753235</v>
+        <v>336.4440731784068</v>
       </c>
       <c r="H29" t="n">
-        <v>64.23854930119751</v>
+        <v>112.9637474042807</v>
       </c>
       <c r="I29" t="n">
-        <v>64.23854930119751</v>
+        <v>64.23854930119766</v>
       </c>
       <c r="J29" t="n">
-        <v>281.5142090981798</v>
+        <v>179.5789721683937</v>
       </c>
       <c r="K29" t="n">
-        <v>688.5480588627597</v>
+        <v>484.6775850031873</v>
       </c>
       <c r="L29" t="n">
-        <v>1218.955110578068</v>
+        <v>1015.084636718496</v>
       </c>
       <c r="M29" t="n">
-        <v>1803.797457497813</v>
+        <v>1497.991746708455</v>
       </c>
       <c r="N29" t="n">
-        <v>2273.247680997012</v>
+        <v>2069.377207137439</v>
       </c>
       <c r="O29" t="n">
-        <v>2664.293225684524</v>
+        <v>2562.357988754738</v>
       </c>
       <c r="P29" t="n">
-        <v>2965.884091055838</v>
+        <v>2960.414122020873</v>
       </c>
       <c r="Q29" t="n">
-        <v>3166.748881909023</v>
+        <v>3211.927465059883</v>
       </c>
       <c r="R29" t="n">
-        <v>3211.927465059875</v>
+        <v>3211.927465059883</v>
       </c>
       <c r="S29" t="n">
-        <v>3140.576429334811</v>
+        <v>3140.576429334818</v>
       </c>
       <c r="T29" t="n">
-        <v>3022.503233442306</v>
+        <v>3022.503233442314</v>
       </c>
       <c r="U29" t="n">
-        <v>2871.664514812543</v>
+        <v>2871.66451481255</v>
       </c>
       <c r="V29" t="n">
-        <v>2638.690175847537</v>
+        <v>2638.690175847545</v>
       </c>
       <c r="W29" t="n">
-        <v>2380.160180844191</v>
+        <v>2380.160180844199</v>
       </c>
       <c r="X29" t="n">
-        <v>2102.134975504738</v>
+        <v>2102.134975504746</v>
       </c>
       <c r="Y29" t="n">
-        <v>1812.598055219629</v>
+        <v>1812.598055219637</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>930.9819172525789</v>
+        <v>930.9819172525791</v>
       </c>
       <c r="C30" t="n">
-        <v>769.2782444935336</v>
+        <v>769.2782444935339</v>
       </c>
       <c r="D30" t="n">
-        <v>630.4396074837457</v>
+        <v>630.4396074837459</v>
       </c>
       <c r="E30" t="n">
-        <v>483.411597540617</v>
+        <v>483.4115975406172</v>
       </c>
       <c r="F30" t="n">
-        <v>348.7177994904914</v>
+        <v>348.7177994904915</v>
       </c>
       <c r="G30" t="n">
-        <v>220.2680759244327</v>
+        <v>220.2680759244328</v>
       </c>
       <c r="H30" t="n">
-        <v>123.0226117003679</v>
+        <v>123.0226117003681</v>
       </c>
       <c r="I30" t="n">
-        <v>64.23854930119751</v>
+        <v>64.23854930119766</v>
       </c>
       <c r="J30" t="n">
-        <v>64.23854930119751</v>
+        <v>64.23854930119766</v>
       </c>
       <c r="K30" t="n">
-        <v>337.8495547562832</v>
+        <v>64.23854930119766</v>
       </c>
       <c r="L30" t="n">
-        <v>762.9967936456555</v>
+        <v>489.3857881905701</v>
       </c>
       <c r="M30" t="n">
-        <v>1317.260083428207</v>
+        <v>1043.649077973122</v>
       </c>
       <c r="N30" t="n">
-        <v>1735.207419643789</v>
+        <v>1542.55837830774</v>
       </c>
       <c r="O30" t="n">
-        <v>2192.415443008255</v>
+        <v>1999.766401672207</v>
       </c>
       <c r="P30" t="n">
-        <v>2546.686071742573</v>
+        <v>2354.037030406525</v>
       </c>
       <c r="Q30" t="n">
         <v>2546.686071742573</v>
@@ -6573,13 +6573,13 @@
         <v>2169.02761767318</v>
       </c>
       <c r="U30" t="n">
-        <v>1950.551165824822</v>
+        <v>1950.551165824823</v>
       </c>
       <c r="V30" t="n">
-        <v>1722.155543273156</v>
+        <v>1722.155543273157</v>
       </c>
       <c r="W30" t="n">
-        <v>1480.839674506466</v>
+        <v>1480.839674506467</v>
       </c>
       <c r="X30" t="n">
         <v>1282.922686384261</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>426.536801173889</v>
+        <v>426.5368011738892</v>
       </c>
       <c r="C31" t="n">
-        <v>360.9257667746226</v>
+        <v>360.9257667746228</v>
       </c>
       <c r="D31" t="n">
-        <v>311.8588087414387</v>
+        <v>311.8588087414389</v>
       </c>
       <c r="E31" t="n">
-        <v>263.8547296418109</v>
+        <v>263.8547296418111</v>
       </c>
       <c r="F31" t="n">
-        <v>215.3790098066413</v>
+        <v>215.3790098066415</v>
       </c>
       <c r="G31" t="n">
-        <v>150.6979130915327</v>
+        <v>150.6979130915329</v>
       </c>
       <c r="H31" t="n">
-        <v>97.40815763597149</v>
+        <v>97.40815763597166</v>
       </c>
       <c r="I31" t="n">
-        <v>64.23854930119751</v>
+        <v>64.23854930119766</v>
       </c>
       <c r="J31" t="n">
-        <v>123.5066397503125</v>
+        <v>123.506639750313</v>
       </c>
       <c r="K31" t="n">
-        <v>285.6593471908818</v>
+        <v>285.6593471908824</v>
       </c>
       <c r="L31" t="n">
-        <v>522.2575028290222</v>
+        <v>522.2575028290227</v>
       </c>
       <c r="M31" t="n">
-        <v>778.0933534557801</v>
+        <v>778.0933534557805</v>
       </c>
       <c r="N31" t="n">
         <v>1033.504248942869</v>
       </c>
       <c r="O31" t="n">
-        <v>1266.280543983989</v>
+        <v>1266.28054398399</v>
       </c>
       <c r="P31" t="n">
-        <v>1458.888733649794</v>
+        <v>1458.888733649795</v>
       </c>
       <c r="Q31" t="n">
         <v>1542.234660632706</v>
@@ -6649,22 +6649,22 @@
         <v>1401.594789177349</v>
       </c>
       <c r="T31" t="n">
-        <v>1273.419379183484</v>
+        <v>1273.419379183485</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.246822999527</v>
+        <v>1090.246822999528</v>
       </c>
       <c r="V31" t="n">
-        <v>933.5164536970035</v>
+        <v>933.5164536970038</v>
       </c>
       <c r="W31" t="n">
-        <v>751.3649873534559</v>
+        <v>751.3649873534563</v>
       </c>
       <c r="X31" t="n">
-        <v>624.117458387885</v>
+        <v>624.1174583878853</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0872347192155</v>
+        <v>506.0872347192157</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1649.120989882916</v>
+        <v>1649.12098988292</v>
       </c>
       <c r="C32" t="n">
-        <v>1392.017198126524</v>
+        <v>1392.017198126528</v>
       </c>
       <c r="D32" t="n">
-        <v>1144.023200264548</v>
+        <v>1144.023200264552</v>
       </c>
       <c r="E32" t="n">
-        <v>874.067447281456</v>
+        <v>874.0674472814585</v>
       </c>
       <c r="F32" t="n">
-        <v>584.746223502427</v>
+        <v>584.746223502429</v>
       </c>
       <c r="G32" t="n">
-        <v>293.9932353322774</v>
+        <v>293.9932353322783</v>
       </c>
       <c r="H32" t="n">
-        <v>91.33794132989871</v>
+        <v>91.33794132989948</v>
       </c>
       <c r="I32" t="n">
-        <v>63.437774998563</v>
+        <v>63.43777499856316</v>
       </c>
       <c r="J32" t="n">
-        <v>301.1240484350348</v>
+        <v>276.7089209428096</v>
       </c>
       <c r="K32" t="n">
-        <v>728.5685118391042</v>
+        <v>704.1533843468784</v>
       </c>
       <c r="L32" t="n">
-        <v>1279.386177193902</v>
+        <v>1132.625199132401</v>
       </c>
       <c r="M32" t="n">
-        <v>1794.634813470559</v>
+        <v>1615.532309122359</v>
       </c>
       <c r="N32" t="n">
-        <v>2264.085036969758</v>
+        <v>2207.328383190833</v>
       </c>
       <c r="O32" t="n">
-        <v>2655.13058165727</v>
+        <v>2720.719778447621</v>
       </c>
       <c r="P32" t="n">
-        <v>2956.721447028584</v>
+        <v>3022.310643818934</v>
       </c>
       <c r="Q32" t="n">
-        <v>3106.299553137807</v>
+        <v>3171.888749928158</v>
       </c>
       <c r="R32" t="n">
-        <v>3171.88874992815</v>
+        <v>3171.888749928158</v>
       </c>
       <c r="S32" t="n">
-        <v>3121.362745974833</v>
+        <v>3121.362745974841</v>
       </c>
       <c r="T32" t="n">
-        <v>3024.114581854075</v>
+        <v>3024.114581854083</v>
       </c>
       <c r="U32" t="n">
-        <v>2894.100894996058</v>
+        <v>2894.100894996065</v>
       </c>
       <c r="V32" t="n">
-        <v>2681.951587802801</v>
+        <v>2681.951587802806</v>
       </c>
       <c r="W32" t="n">
-        <v>2444.246624571202</v>
+        <v>2444.246624571208</v>
       </c>
       <c r="X32" t="n">
-        <v>2187.046451003496</v>
+        <v>2187.046451003501</v>
       </c>
       <c r="Y32" t="n">
-        <v>1918.334562490135</v>
+        <v>1918.334562490139</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>930.1811429499445</v>
+        <v>930.1811429499447</v>
       </c>
       <c r="C33" t="n">
-        <v>768.4774701908992</v>
+        <v>768.4774701908995</v>
       </c>
       <c r="D33" t="n">
-        <v>629.6388331811113</v>
+        <v>629.6388331811115</v>
       </c>
       <c r="E33" t="n">
-        <v>482.6108232379826</v>
+        <v>482.6108232379827</v>
       </c>
       <c r="F33" t="n">
-        <v>347.9170251878569</v>
+        <v>347.917025187857</v>
       </c>
       <c r="G33" t="n">
-        <v>219.4673016217982</v>
+        <v>219.4673016217983</v>
       </c>
       <c r="H33" t="n">
-        <v>122.2218373977335</v>
+        <v>122.2218373977336</v>
       </c>
       <c r="I33" t="n">
-        <v>63.437774998563</v>
+        <v>63.43777499856316</v>
       </c>
       <c r="J33" t="n">
-        <v>149.5060475008947</v>
+        <v>63.43777499856316</v>
       </c>
       <c r="K33" t="n">
-        <v>423.1170529559803</v>
+        <v>337.0487804536488</v>
       </c>
       <c r="L33" t="n">
-        <v>848.2642918453528</v>
+        <v>762.1960193430211</v>
       </c>
       <c r="M33" t="n">
-        <v>959.4297111966347</v>
+        <v>1316.459309125573</v>
       </c>
       <c r="N33" t="n">
-        <v>1541.757604005106</v>
+        <v>1898.787201934044</v>
       </c>
       <c r="O33" t="n">
-        <v>1998.965627369572</v>
+        <v>2191.614668705621</v>
       </c>
       <c r="P33" t="n">
-        <v>2353.23625610389</v>
+        <v>2545.885297439939</v>
       </c>
       <c r="Q33" t="n">
         <v>2545.885297439939</v>
@@ -6822,7 +6822,7 @@
         <v>1282.121912081627</v>
       </c>
       <c r="Y33" t="n">
-        <v>1089.600585731205</v>
+        <v>1089.600585731206</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>279.9608044690231</v>
+        <v>279.9608044690275</v>
       </c>
       <c r="C34" t="n">
-        <v>235.1748018415041</v>
+        <v>235.1748018415078</v>
       </c>
       <c r="D34" t="n">
-        <v>206.9328755800675</v>
+        <v>206.9328755800707</v>
       </c>
       <c r="E34" t="n">
-        <v>179.753828252187</v>
+        <v>179.7538282521896</v>
       </c>
       <c r="F34" t="n">
-        <v>152.1031401887648</v>
+        <v>152.1031401887668</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2470752454035</v>
+        <v>108.2470752454049</v>
       </c>
       <c r="H34" t="n">
-        <v>75.78235156158964</v>
+        <v>75.7823515615904</v>
       </c>
       <c r="I34" t="n">
-        <v>63.437774998563</v>
+        <v>63.43777499856316</v>
       </c>
       <c r="J34" t="n">
-        <v>63.437774998563</v>
+        <v>63.43777499856316</v>
       </c>
       <c r="K34" t="n">
-        <v>123.6552455093462</v>
+        <v>246.0010960786215</v>
       </c>
       <c r="L34" t="n">
-        <v>330.8948531195342</v>
+        <v>380.6640147869757</v>
       </c>
       <c r="M34" t="n">
-        <v>484.7954668165059</v>
+        <v>534.5646284839473</v>
       </c>
       <c r="N34" t="n">
-        <v>638.2711253738082</v>
+        <v>810.3861376105249</v>
       </c>
       <c r="O34" t="n">
-        <v>891.4580340544185</v>
+        <v>1063.573046291134</v>
       </c>
       <c r="P34" t="n">
-        <v>1104.476837359713</v>
+        <v>1208.233377982124</v>
       </c>
       <c r="Q34" t="n">
-        <v>1208.233377982114</v>
+        <v>1208.233377982124</v>
       </c>
       <c r="R34" t="n">
-        <v>1194.050319724827</v>
+        <v>1194.050319724836</v>
       </c>
       <c r="S34" t="n">
-        <v>1109.243570070251</v>
+        <v>1109.24357007026</v>
       </c>
       <c r="T34" t="n">
-        <v>1001.893191848134</v>
+        <v>1001.893191848142</v>
       </c>
       <c r="U34" t="n">
-        <v>839.5456674359249</v>
+        <v>839.5456674359325</v>
       </c>
       <c r="V34" t="n">
-        <v>703.6403299051482</v>
+        <v>703.6403299051551</v>
       </c>
       <c r="W34" t="n">
-        <v>542.313895333348</v>
+        <v>542.3138953333543</v>
       </c>
       <c r="X34" t="n">
-        <v>435.8913981395244</v>
+        <v>435.8913981395301</v>
       </c>
       <c r="Y34" t="n">
-        <v>338.6862062426022</v>
+        <v>338.6862062426072</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1424.416771463641</v>
+        <v>1424.416771463642</v>
       </c>
       <c r="C35" t="n">
-        <v>1198.532130311073</v>
+        <v>1198.532130311074</v>
       </c>
       <c r="D35" t="n">
-        <v>981.7572830529214</v>
+        <v>981.7572830529216</v>
       </c>
       <c r="E35" t="n">
-        <v>743.0206806736526</v>
+        <v>743.0206806736528</v>
       </c>
       <c r="F35" t="n">
-        <v>484.9186074984473</v>
+        <v>484.9186074984475</v>
       </c>
       <c r="G35" t="n">
         <v>225.3847699321207</v>
       </c>
       <c r="H35" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="I35" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="J35" t="n">
-        <v>169.289049400762</v>
+        <v>169.2890494007618</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3876622355557</v>
+        <v>474.3876622355555</v>
       </c>
       <c r="L35" t="n">
-        <v>902.859477021078</v>
+        <v>902.8594770210777</v>
       </c>
       <c r="M35" t="n">
         <v>1385.766587011037</v>
@@ -6953,34 +6953,34 @@
         <v>2246.262355197749</v>
       </c>
       <c r="P35" t="n">
-        <v>2547.853220569062</v>
+        <v>2547.853220569063</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.431326678285</v>
+        <v>2697.431326678286</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.431326678285</v>
+        <v>2697.431326678286</v>
       </c>
       <c r="S35" t="n">
-        <v>2678.124473328791</v>
+        <v>2678.124473328792</v>
       </c>
       <c r="T35" t="n">
-        <v>2612.095459811857</v>
+        <v>2612.095459811858</v>
       </c>
       <c r="U35" t="n">
-        <v>2513.300923557665</v>
+        <v>2513.300923557666</v>
       </c>
       <c r="V35" t="n">
         <v>2332.370766968231</v>
       </c>
       <c r="W35" t="n">
-        <v>2125.884954340456</v>
+        <v>2125.884954340457</v>
       </c>
       <c r="X35" t="n">
-        <v>1899.903931376574</v>
+        <v>1899.903931376575</v>
       </c>
       <c r="Y35" t="n">
-        <v>1662.411193467036</v>
+        <v>1662.411193467037</v>
       </c>
     </row>
     <row r="36">
@@ -7002,7 +7002,7 @@
         <v>473.1216747729852</v>
       </c>
       <c r="F36" t="n">
-        <v>338.4278767228595</v>
+        <v>338.4278767228596</v>
       </c>
       <c r="G36" t="n">
         <v>209.9781531568009</v>
@@ -7011,19 +7011,19 @@
         <v>112.7326889327362</v>
       </c>
       <c r="I36" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="J36" t="n">
-        <v>140.0168990358974</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="K36" t="n">
-        <v>413.627904490983</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="L36" t="n">
-        <v>838.7751433803554</v>
+        <v>395.6772729490856</v>
       </c>
       <c r="M36" t="n">
-        <v>1393.038433162907</v>
+        <v>949.9405627316372</v>
       </c>
       <c r="N36" t="n">
         <v>1532.268455540108</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.39796597678881</v>
+        <v>81.39796597678901</v>
       </c>
       <c r="C37" t="n">
-        <v>67.83111395309348</v>
+        <v>67.83111395309362</v>
       </c>
       <c r="D37" t="n">
-        <v>67.83111395309348</v>
+        <v>67.83111395309362</v>
       </c>
       <c r="E37" t="n">
-        <v>67.83111395309348</v>
+        <v>67.83111395309362</v>
       </c>
       <c r="F37" t="n">
-        <v>67.83111395309348</v>
+        <v>67.83111395309362</v>
       </c>
       <c r="G37" t="n">
-        <v>55.19419961355587</v>
+        <v>55.19419961355595</v>
       </c>
       <c r="H37" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="I37" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="J37" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="K37" t="n">
         <v>114.1660970443489</v>
       </c>
       <c r="L37" t="n">
-        <v>248.829015752703</v>
+        <v>248.8290157527031</v>
       </c>
       <c r="M37" t="n">
         <v>402.7296294496747</v>
@@ -7120,25 +7120,25 @@
         <v>777.7192988543306</v>
       </c>
       <c r="S37" t="n">
-        <v>724.1316998035792</v>
+        <v>724.1316998035791</v>
       </c>
       <c r="T37" t="n">
-        <v>648.0004721852857</v>
+        <v>648.0004721852856</v>
       </c>
       <c r="U37" t="n">
-        <v>484.8870759245722</v>
+        <v>516.8720983769001</v>
       </c>
       <c r="V37" t="n">
-        <v>380.2008889976192</v>
+        <v>412.185911449947</v>
       </c>
       <c r="W37" t="n">
-        <v>250.0936050296427</v>
+        <v>282.0786274819704</v>
       </c>
       <c r="X37" t="n">
-        <v>174.8902584396428</v>
+        <v>206.8752808919705</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.9042171465443</v>
+        <v>108.9042171465445</v>
       </c>
     </row>
     <row r="38">
@@ -7154,61 +7154,61 @@
         <v>1198.532130311073</v>
       </c>
       <c r="D38" t="n">
-        <v>981.7572830529207</v>
+        <v>981.7572830529206</v>
       </c>
       <c r="E38" t="n">
-        <v>743.0206806736519</v>
+        <v>743.0206806736518</v>
       </c>
       <c r="F38" t="n">
-        <v>484.9186074984466</v>
+        <v>484.9186074984464</v>
       </c>
       <c r="G38" t="n">
         <v>225.3847699321207</v>
       </c>
       <c r="H38" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="I38" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="J38" t="n">
-        <v>169.2890494007622</v>
+        <v>169.2890494007618</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3876622355558</v>
+        <v>474.3876622355555</v>
       </c>
       <c r="L38" t="n">
-        <v>902.8594770210781</v>
+        <v>902.8594770210777</v>
       </c>
       <c r="M38" t="n">
         <v>1385.766587011037</v>
       </c>
       <c r="N38" t="n">
-        <v>1855.216810510235</v>
+        <v>1855.216810510236</v>
       </c>
       <c r="O38" t="n">
-        <v>2246.262355197748</v>
+        <v>2246.262355197749</v>
       </c>
       <c r="P38" t="n">
-        <v>2547.853220569062</v>
+        <v>2547.853220569063</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.431326678285</v>
+        <v>2697.431326678286</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.431326678285</v>
+        <v>2697.431326678286</v>
       </c>
       <c r="S38" t="n">
-        <v>2678.124473328792</v>
+        <v>2678.124473328793</v>
       </c>
       <c r="T38" t="n">
-        <v>2612.095459811858</v>
+        <v>2612.095459811859</v>
       </c>
       <c r="U38" t="n">
         <v>2513.300923557665</v>
       </c>
       <c r="V38" t="n">
-        <v>2332.37076696823</v>
+        <v>2332.370766968231</v>
       </c>
       <c r="W38" t="n">
         <v>2125.884954340456</v>
@@ -7239,7 +7239,7 @@
         <v>473.1216747729852</v>
       </c>
       <c r="F39" t="n">
-        <v>338.4278767228595</v>
+        <v>338.4278767228596</v>
       </c>
       <c r="G39" t="n">
         <v>209.9781531568009</v>
@@ -7248,7 +7248,7 @@
         <v>112.7326889327362</v>
       </c>
       <c r="I39" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="J39" t="n">
         <v>140.0168990358974</v>
@@ -7260,7 +7260,7 @@
         <v>838.7751433803554</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9405627316372</v>
+        <v>1393.038433162907</v>
       </c>
       <c r="N39" t="n">
         <v>1532.268455540108</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.39796597678881</v>
+        <v>81.39796597678884</v>
       </c>
       <c r="C40" t="n">
-        <v>67.83111395309348</v>
+        <v>67.83111395309351</v>
       </c>
       <c r="D40" t="n">
-        <v>67.83111395309348</v>
+        <v>67.83111395309351</v>
       </c>
       <c r="E40" t="n">
-        <v>67.83111395309348</v>
+        <v>67.83111395309351</v>
       </c>
       <c r="F40" t="n">
-        <v>67.83111395309348</v>
+        <v>67.83111395309351</v>
       </c>
       <c r="G40" t="n">
-        <v>55.19419961355587</v>
+        <v>55.1941996135559</v>
       </c>
       <c r="H40" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="I40" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="J40" t="n">
-        <v>53.9486265335657</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="K40" t="n">
         <v>114.1660970443489</v>
       </c>
       <c r="L40" t="n">
-        <v>248.829015752703</v>
+        <v>248.8290157527031</v>
       </c>
       <c r="M40" t="n">
         <v>402.7296294496747</v>
@@ -7351,19 +7351,19 @@
         <v>777.7192988543306</v>
       </c>
       <c r="Q40" t="n">
-        <v>777.7192988543306</v>
+        <v>758.7525506175434</v>
       </c>
       <c r="R40" t="n">
-        <v>777.7192988543306</v>
+        <v>758.7525506175434</v>
       </c>
       <c r="S40" t="n">
-        <v>692.1466773512511</v>
+        <v>705.164951566792</v>
       </c>
       <c r="T40" t="n">
-        <v>616.0154497329577</v>
+        <v>616.0154497329578</v>
       </c>
       <c r="U40" t="n">
-        <v>484.8870759245722</v>
+        <v>484.8870759245723</v>
       </c>
       <c r="V40" t="n">
         <v>380.2008889976192</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1397.864897283737</v>
+        <v>1397.864897283739</v>
       </c>
       <c r="C41" t="n">
-        <v>1168.661271858681</v>
+        <v>1168.661271858683</v>
       </c>
       <c r="D41" t="n">
-        <v>948.5674403280411</v>
+        <v>948.5674403280425</v>
       </c>
       <c r="E41" t="n">
-        <v>706.5118536762843</v>
+        <v>706.5118536762857</v>
       </c>
       <c r="F41" t="n">
-        <v>491.5565760434229</v>
+        <v>445.0907962285924</v>
       </c>
       <c r="G41" t="n">
-        <v>228.7037542046087</v>
+        <v>182.2379743897769</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356573</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356573</v>
       </c>
       <c r="J41" t="n">
         <v>169.2890494007618</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3876622355555</v>
+        <v>474.3876622355572</v>
       </c>
       <c r="L41" t="n">
-        <v>902.8594770210775</v>
+        <v>902.8594770210794</v>
       </c>
       <c r="M41" t="n">
-        <v>1385.766587011036</v>
+        <v>1385.766587011038</v>
       </c>
       <c r="N41" t="n">
-        <v>1855.216810510235</v>
+        <v>1855.216810510237</v>
       </c>
       <c r="O41" t="n">
-        <v>2246.262355197748</v>
+        <v>2246.262355197749</v>
       </c>
       <c r="P41" t="n">
-        <v>2547.853220569061</v>
+        <v>2547.853220569063</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.431326678285</v>
+        <v>2697.431326678286</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.431326678285</v>
+        <v>2697.431326678286</v>
       </c>
       <c r="S41" t="n">
-        <v>2674.805489056303</v>
+        <v>2674.805489056305</v>
       </c>
       <c r="T41" t="n">
-        <v>2605.457491266881</v>
+        <v>2605.457491266883</v>
       </c>
       <c r="U41" t="n">
-        <v>2503.343970740201</v>
+        <v>2503.343970740203</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.094829878279</v>
+        <v>2319.09482987828</v>
       </c>
       <c r="W41" t="n">
-        <v>2109.290032978016</v>
+        <v>2109.290032978018</v>
       </c>
       <c r="X41" t="n">
-        <v>1879.990025741646</v>
+        <v>1879.990025741648</v>
       </c>
       <c r="Y41" t="n">
-        <v>1639.17830355962</v>
+        <v>1639.178303559622</v>
       </c>
     </row>
     <row r="42">
@@ -7476,31 +7476,31 @@
         <v>473.1216747729852</v>
       </c>
       <c r="F42" t="n">
-        <v>338.4278767228595</v>
+        <v>338.4278767228596</v>
       </c>
       <c r="G42" t="n">
-        <v>209.9781531568008</v>
+        <v>209.9781531568009</v>
       </c>
       <c r="H42" t="n">
-        <v>112.7326889327361</v>
+        <v>112.7326889327362</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356573</v>
       </c>
       <c r="J42" t="n">
         <v>140.0168990358974</v>
       </c>
       <c r="K42" t="n">
-        <v>413.627904490983</v>
+        <v>140.0168990358974</v>
       </c>
       <c r="L42" t="n">
-        <v>838.7751433803554</v>
+        <v>565.1641379252698</v>
       </c>
       <c r="M42" t="n">
-        <v>1393.038433162907</v>
+        <v>1119.427427707821</v>
       </c>
       <c r="N42" t="n">
-        <v>1532.268455540108</v>
+        <v>1701.755320516293</v>
       </c>
       <c r="O42" t="n">
         <v>1989.476478904575</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.69667872435369</v>
+        <v>90.74539633868542</v>
       </c>
       <c r="C43" t="n">
-        <v>74.81084242817036</v>
+        <v>73.85956004250207</v>
       </c>
       <c r="D43" t="n">
-        <v>74.46908249806947</v>
+        <v>73.51780011240115</v>
       </c>
       <c r="E43" t="n">
-        <v>74.46908249806947</v>
+        <v>74.22456884768758</v>
       </c>
       <c r="F43" t="n">
-        <v>74.46908249806947</v>
+        <v>74.46908249806955</v>
       </c>
       <c r="G43" t="n">
-        <v>58.51318388604386</v>
+        <v>58.51318388604393</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356573</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356573</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356573</v>
       </c>
       <c r="K43" t="n">
         <v>114.1660970443489</v>
       </c>
       <c r="L43" t="n">
-        <v>248.829015752703</v>
+        <v>248.8290157527031</v>
       </c>
       <c r="M43" t="n">
         <v>402.7296294496747</v>
@@ -7588,31 +7588,31 @@
         <v>777.7192988543306</v>
       </c>
       <c r="Q43" t="n">
-        <v>777.7192988543306</v>
+        <v>781.6335809438034</v>
       </c>
       <c r="R43" t="n">
-        <v>782.5848633294715</v>
+        <v>781.6335809438034</v>
       </c>
       <c r="S43" t="n">
-        <v>725.6782800062321</v>
+        <v>724.7269976205639</v>
       </c>
       <c r="T43" t="n">
-        <v>646.2280681154506</v>
+        <v>645.2767857297824</v>
       </c>
       <c r="U43" t="n">
-        <v>511.7807100345771</v>
+        <v>510.829427648909</v>
       </c>
       <c r="V43" t="n">
-        <v>403.7755388351361</v>
+        <v>402.8242564494679</v>
       </c>
       <c r="W43" t="n">
-        <v>270.3492705946716</v>
+        <v>269.3979882090034</v>
       </c>
       <c r="X43" t="n">
-        <v>191.8269397321837</v>
+        <v>190.8756573465155</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.5219141665971</v>
+        <v>121.5706317809289</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1444.330677098569</v>
+        <v>1397.864897283738</v>
       </c>
       <c r="C44" t="n">
-        <v>1215.127051673513</v>
+        <v>1168.661271858682</v>
       </c>
       <c r="D44" t="n">
-        <v>995.033220142873</v>
+        <v>948.5674403280416</v>
       </c>
       <c r="E44" t="n">
-        <v>752.9776334911162</v>
+        <v>706.5118536762848</v>
       </c>
       <c r="F44" t="n">
-        <v>491.5565760434229</v>
+        <v>445.0907962285919</v>
       </c>
       <c r="G44" t="n">
-        <v>228.7037542046087</v>
+        <v>182.2379743897768</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="J44" t="n">
-        <v>169.2890494007615</v>
+        <v>169.2890494007618</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3876622355552</v>
+        <v>474.3876622355555</v>
       </c>
       <c r="L44" t="n">
-        <v>902.8594770210775</v>
+        <v>902.8594770210792</v>
       </c>
       <c r="M44" t="n">
-        <v>1385.766587011037</v>
+        <v>1385.766587011038</v>
       </c>
       <c r="N44" t="n">
-        <v>1855.216810510235</v>
+        <v>1855.216810510236</v>
       </c>
       <c r="O44" t="n">
-        <v>2246.262355197748</v>
+        <v>2246.262355197749</v>
       </c>
       <c r="P44" t="n">
-        <v>2547.853220569061</v>
+        <v>2547.853220569063</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.431326678285</v>
+        <v>2697.431326678286</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.431326678285</v>
+        <v>2697.431326678286</v>
       </c>
       <c r="S44" t="n">
-        <v>2674.805489056303</v>
+        <v>2674.805489056304</v>
       </c>
       <c r="T44" t="n">
-        <v>2605.457491266881</v>
+        <v>2605.457491266883</v>
       </c>
       <c r="U44" t="n">
-        <v>2503.343970740201</v>
+        <v>2503.343970740202</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.094829878279</v>
+        <v>2319.09482987828</v>
       </c>
       <c r="W44" t="n">
-        <v>2109.290032978016</v>
+        <v>2109.290032978017</v>
       </c>
       <c r="X44" t="n">
-        <v>1926.455805556478</v>
+        <v>1879.990025741647</v>
       </c>
       <c r="Y44" t="n">
-        <v>1685.644083374452</v>
+        <v>1639.178303559621</v>
       </c>
     </row>
     <row r="45">
@@ -7713,16 +7713,16 @@
         <v>473.1216747729852</v>
       </c>
       <c r="F45" t="n">
-        <v>338.4278767228595</v>
+        <v>338.4278767228596</v>
       </c>
       <c r="G45" t="n">
-        <v>209.9781531568008</v>
+        <v>209.9781531568009</v>
       </c>
       <c r="H45" t="n">
-        <v>112.7326889327361</v>
+        <v>112.7326889327362</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="J45" t="n">
         <v>140.0168990358974</v>
@@ -7731,10 +7731,10 @@
         <v>413.627904490983</v>
       </c>
       <c r="L45" t="n">
-        <v>838.7751433803555</v>
+        <v>838.7751433803554</v>
       </c>
       <c r="M45" t="n">
-        <v>1393.038433162907</v>
+        <v>949.9405627316372</v>
       </c>
       <c r="N45" t="n">
         <v>1532.268455540108</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.69667872435369</v>
+        <v>91.69667872435383</v>
       </c>
       <c r="C46" t="n">
-        <v>74.81084242817036</v>
+        <v>74.81084242817047</v>
       </c>
       <c r="D46" t="n">
-        <v>74.46908249806947</v>
+        <v>74.46908249806955</v>
       </c>
       <c r="E46" t="n">
-        <v>74.46908249806947</v>
+        <v>74.46908249806955</v>
       </c>
       <c r="F46" t="n">
-        <v>74.46908249806947</v>
+        <v>74.46908249806955</v>
       </c>
       <c r="G46" t="n">
-        <v>58.51318388604386</v>
+        <v>58.51318388604392</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94862653356569</v>
+        <v>53.94862653356572</v>
       </c>
       <c r="K46" t="n">
         <v>114.1660970443489</v>
       </c>
       <c r="L46" t="n">
-        <v>248.829015752703</v>
+        <v>248.8290157527031</v>
       </c>
       <c r="M46" t="n">
         <v>402.7296294496747</v>
@@ -7819,37 +7819,37 @@
         <v>556.2052880069771</v>
       </c>
       <c r="O46" t="n">
-        <v>687.0463461183116</v>
+        <v>691.9119105934528</v>
       </c>
       <c r="P46" t="n">
-        <v>777.7192988543308</v>
+        <v>782.5848633294719</v>
       </c>
       <c r="Q46" t="n">
-        <v>782.5848633294715</v>
+        <v>782.5848633294719</v>
       </c>
       <c r="R46" t="n">
-        <v>782.5848633294715</v>
+        <v>782.5848633294719</v>
       </c>
       <c r="S46" t="n">
-        <v>725.6782800062321</v>
+        <v>725.6782800062324</v>
       </c>
       <c r="T46" t="n">
-        <v>646.2280681154506</v>
+        <v>646.2280681154509</v>
       </c>
       <c r="U46" t="n">
-        <v>511.7807100345771</v>
+        <v>511.7807100345774</v>
       </c>
       <c r="V46" t="n">
-        <v>403.7755388351361</v>
+        <v>403.7755388351363</v>
       </c>
       <c r="W46" t="n">
-        <v>270.3492705946716</v>
+        <v>270.3492705946718</v>
       </c>
       <c r="X46" t="n">
-        <v>191.8269397321837</v>
+        <v>191.8269397321839</v>
       </c>
       <c r="Y46" t="n">
-        <v>122.5219141665971</v>
+        <v>122.5219141665973</v>
       </c>
     </row>
   </sheetData>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>188.8326827569781</v>
+        <v>188.4282512910011</v>
       </c>
       <c r="L8" t="n">
-        <v>201.569890946046</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
         <v>197.1659932800904</v>
       </c>
       <c r="N8" t="n">
-        <v>196.0033614891845</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
@@ -8538,19 +8538,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>125.4935813445713</v>
       </c>
       <c r="N9" t="n">
-        <v>116.3203883846627</v>
+        <v>116.7248198506397</v>
       </c>
       <c r="O9" t="n">
         <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
-        <v>118.8638848070747</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.7448702278239</v>
+        <v>123.3404387618468</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8614,13 +8614,13 @@
         <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
-        <v>119.1990467954604</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574291</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>122.5056162750536</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>103.3201220800635</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>380.2977832556434</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>229.8531698415667</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8781,7 +8781,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>64.44740856351736</v>
+        <v>64.44740856351591</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>208.2528001336798</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8936,7 +8936,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>556.9782021455601</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>103.3201220800635</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>380.2977832556437</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>229.8531698415699</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>157.8429763787677</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>370.1664713989225</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>78.50548280806889</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>103.3201220800635</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>258.7272406825722</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9416,7 +9416,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>372.1820026066212</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9483,13 +9483,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>52.65079345068644</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>175.5714801503873</v>
+        <v>605.0131355941988</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>103.3201220800635</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>255.6765249629846</v>
       </c>
       <c r="Q23" t="n">
-        <v>229.8531698415699</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,13 +9720,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>52.65079345068644</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>175.5714801503873</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>254.9685230041827</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>76.98069695027728</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9960,7 +9960,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>157.8429763787673</v>
+        <v>244.780625371022</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10191,7 +10191,7 @@
         <v>76.98069695027728</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>67.43005513141721</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>457.1041203911757</v>
+        <v>538.8838821275767</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.50548280806981</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.98069695027728</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10434,19 +10434,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>157.8429763787678</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>345.9800488043048</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>78.50548280806981</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,19 +10662,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>76.98069695027728</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>67.43005513141721</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>397.8312443754539</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>175.5714801503873</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236963</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10908,10 +10908,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>157.8429763787677</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>175.5714801503873</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425159</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>67.43005513141721</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,10 +11148,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>175.5714801503873</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>340.8221615484513</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236956</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>157.8429763787677</v>
       </c>
       <c r="N45" t="n">
-        <v>175.5714801503871</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.1382183351761</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>266.1308393373859</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>287.8729769072914</v>
       </c>
       <c r="F11" t="n">
-        <v>305.0885567333997</v>
+        <v>307.0447929952686</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.4622397424784</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.61513012873837</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.63752536781377</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.1382183351761</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>133.9698478399542</v>
+        <v>275.1495352928579</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>287.8729769072914</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>308.4622397424783</v>
       </c>
       <c r="H14" t="n">
-        <v>221.2455225163847</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>57.51038783114927</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.6415510822575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24446,13 +24446,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>39.76156481429143</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>270.40616038964</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>230.6445955753553</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>222.1682142675952</v>
+        <v>270.4061603896405</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>48.23794612205222</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25637,13 +25637,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>46.00112201668355</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>46.00112201668355</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>46.00112201668452</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817796.7656605864</v>
+        <v>817796.7656605861</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>889896.0784584288</v>
+        <v>889896.0784584287</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>889896.0784584288</v>
+        <v>889896.0784584287</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>889896.0784584288</v>
+        <v>889896.0784584287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>873117.9170043111</v>
+        <v>873117.9170043117</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>873117.917004311</v>
+        <v>873117.9170043115</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>890533.9920324365</v>
+        <v>890533.9920324368</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593554.3894181609</v>
+        <v>593554.3894181608</v>
       </c>
       <c r="C2" t="n">
         <v>593554.3894181608</v>
       </c>
       <c r="D2" t="n">
-        <v>594789.3835863991</v>
+        <v>594789.383586399</v>
       </c>
       <c r="E2" t="n">
-        <v>537598.9367103456</v>
+        <v>537598.9367103458</v>
       </c>
       <c r="F2" t="n">
-        <v>537598.9367103459</v>
+        <v>537598.9367103457</v>
       </c>
       <c r="G2" t="n">
-        <v>594908.6468829904</v>
+        <v>594908.6468829908</v>
       </c>
       <c r="H2" t="n">
-        <v>594908.6468829906</v>
+        <v>594908.646882991</v>
       </c>
       <c r="I2" t="n">
-        <v>594908.6468829904</v>
+        <v>594908.6468829908</v>
       </c>
       <c r="J2" t="n">
-        <v>578227.2908485522</v>
+        <v>578227.2908485527</v>
       </c>
       <c r="K2" t="n">
-        <v>578227.2908485519</v>
+        <v>578227.290848552</v>
       </c>
       <c r="L2" t="n">
-        <v>594908.6468829904</v>
+        <v>594908.6468829914</v>
       </c>
       <c r="M2" t="n">
-        <v>594908.6468829899</v>
+        <v>594908.6468829898</v>
       </c>
       <c r="N2" t="n">
         <v>594908.6468829899</v>
       </c>
       <c r="O2" t="n">
-        <v>592070.8376657811</v>
+        <v>592070.8376657814</v>
       </c>
       <c r="P2" t="n">
-        <v>592070.8376657809</v>
+        <v>592070.8376657814</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50328.98249438399</v>
+        <v>50328.98249438424</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76445.07386868278</v>
+        <v>76445.07386868328</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66822.40765760788</v>
+        <v>66822.40765760766</v>
       </c>
       <c r="M3" t="n">
         <v>150487.2118258355</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>29414.29059193577</v>
+        <v>29414.29059193546</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,28 +26421,28 @@
         <v>392532.9083931244</v>
       </c>
       <c r="D4" t="n">
-        <v>392094.6976652483</v>
+        <v>392094.6976652482</v>
       </c>
       <c r="E4" t="n">
         <v>248600.9877592209</v>
       </c>
       <c r="F4" t="n">
-        <v>248600.987759221</v>
+        <v>248600.9877592209</v>
       </c>
       <c r="G4" t="n">
-        <v>290572.9751875467</v>
+        <v>290572.9751875469</v>
       </c>
       <c r="H4" t="n">
-        <v>290572.9751875467</v>
+        <v>290572.9751875469</v>
       </c>
       <c r="I4" t="n">
-        <v>290572.9751875467</v>
+        <v>290572.9751875468</v>
       </c>
       <c r="J4" t="n">
-        <v>276028.3016180312</v>
+        <v>276028.3016180316</v>
       </c>
       <c r="K4" t="n">
-        <v>276028.3016180312</v>
+        <v>276028.3016180316</v>
       </c>
       <c r="L4" t="n">
         <v>288169.2505507239</v>
@@ -26479,37 +26479,37 @@
         <v>49956.5918206083</v>
       </c>
       <c r="F5" t="n">
-        <v>49956.59182060836</v>
+        <v>49956.5918206083</v>
       </c>
       <c r="G5" t="n">
-        <v>55245.47585725882</v>
+        <v>55245.47585725879</v>
       </c>
       <c r="H5" t="n">
-        <v>55245.47585725882</v>
+        <v>55245.47585725879</v>
       </c>
       <c r="I5" t="n">
-        <v>55245.47585725882</v>
+        <v>55245.47585725877</v>
       </c>
       <c r="J5" t="n">
-        <v>60274.6215945093</v>
+        <v>60274.62159450942</v>
       </c>
       <c r="K5" t="n">
-        <v>60274.6215945093</v>
+        <v>60274.62159450942</v>
       </c>
       <c r="L5" t="n">
-        <v>61399.26532456591</v>
+        <v>61399.26532456598</v>
       </c>
       <c r="M5" t="n">
-        <v>56785.82963555969</v>
+        <v>56785.8296355597</v>
       </c>
       <c r="N5" t="n">
-        <v>56785.82963555969</v>
+        <v>56785.8296355597</v>
       </c>
       <c r="O5" t="n">
-        <v>56509.59618364392</v>
+        <v>56509.59618364395</v>
       </c>
       <c r="P5" t="n">
-        <v>56509.59618364393</v>
+        <v>56509.59618364395</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167393.8810250365</v>
+        <v>167389.5124525692</v>
       </c>
       <c r="C6" t="n">
-        <v>167393.8810250364</v>
+        <v>167389.5124525692</v>
       </c>
       <c r="D6" t="n">
-        <v>165349.1909308066</v>
+        <v>165348.8062104949</v>
       </c>
       <c r="E6" t="n">
-        <v>-132509.6394435806</v>
+        <v>-132694.5094763954</v>
       </c>
       <c r="F6" t="n">
-        <v>239041.3571305166</v>
+        <v>238856.4870977015</v>
       </c>
       <c r="G6" t="n">
-        <v>198761.2133438008</v>
+        <v>198761.2133438009</v>
       </c>
       <c r="H6" t="n">
-        <v>249090.195838185</v>
+        <v>249090.1958381853</v>
       </c>
       <c r="I6" t="n">
-        <v>249090.1958381849</v>
+        <v>249090.1958381853</v>
       </c>
       <c r="J6" t="n">
-        <v>165479.293767329</v>
+        <v>165425.4829414109</v>
       </c>
       <c r="K6" t="n">
-        <v>241924.3676360114</v>
+        <v>241870.5568100935</v>
       </c>
       <c r="L6" t="n">
-        <v>178517.7233500927</v>
+        <v>178517.7233500939</v>
       </c>
       <c r="M6" t="n">
-        <v>100078.3053186107</v>
+        <v>100078.3053186106</v>
       </c>
       <c r="N6" t="n">
-        <v>250565.5171444462</v>
+        <v>250565.5171444463</v>
       </c>
       <c r="O6" t="n">
-        <v>220678.1058158546</v>
+        <v>220668.9515925737</v>
       </c>
       <c r="P6" t="n">
-        <v>250092.3964077901</v>
+        <v>250083.2421845093</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>102.9648857876628</v>
       </c>
       <c r="G2" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="H2" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="I2" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="J2" t="n">
         <v>102.9648857876628</v>
@@ -26713,7 +26713,7 @@
         <v>102.9648857876628</v>
       </c>
       <c r="L2" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="M2" t="n">
         <v>154.4886263394781</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.3105111154207</v>
+        <v>128.3105111154208</v>
       </c>
       <c r="F3" t="n">
         <v>128.3105111154207</v>
@@ -26759,7 +26759,7 @@
         <v>128.3105111154207</v>
       </c>
       <c r="J3" t="n">
-        <v>128.3105111154208</v>
+        <v>128.3105111154207</v>
       </c>
       <c r="K3" t="n">
         <v>128.3105111154207</v>
@@ -26777,7 +26777,7 @@
         <v>128.3105111154207</v>
       </c>
       <c r="P3" t="n">
-        <v>128.3105111154208</v>
+        <v>128.3105111154207</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26799,37 @@
         <v>633.2774291942287</v>
       </c>
       <c r="F4" t="n">
-        <v>633.2774291942295</v>
+        <v>633.2774291942287</v>
       </c>
       <c r="G4" t="n">
-        <v>633.2774291942295</v>
+        <v>633.2774291942287</v>
       </c>
       <c r="H4" t="n">
-        <v>633.2774291942295</v>
+        <v>633.2774291942287</v>
       </c>
       <c r="I4" t="n">
-        <v>633.2774291942295</v>
+        <v>633.2774291942285</v>
       </c>
       <c r="J4" t="n">
-        <v>802.9818662649689</v>
+        <v>802.9818662649708</v>
       </c>
       <c r="K4" t="n">
-        <v>802.9818662649689</v>
+        <v>802.9818662649708</v>
       </c>
       <c r="L4" t="n">
-        <v>792.9721874820375</v>
+        <v>792.9721874820394</v>
       </c>
       <c r="M4" t="n">
-        <v>674.3578316695713</v>
+        <v>674.3578316695715</v>
       </c>
       <c r="N4" t="n">
-        <v>674.3578316695713</v>
+        <v>674.3578316695715</v>
       </c>
       <c r="O4" t="n">
-        <v>674.3578316695712</v>
+        <v>674.3578316695716</v>
       </c>
       <c r="P4" t="n">
-        <v>674.3578316695712</v>
+        <v>674.3578316695715</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.91122811797999</v>
+        <v>62.9112281179803</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.05365766968282</v>
+        <v>40.05365766968247</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.52800957200985</v>
+        <v>83.52800957200958</v>
       </c>
       <c r="M2" t="n">
-        <v>30.90695909778545</v>
+        <v>30.90695909778599</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>36.76786323991971</v>
+        <v>36.76786323991932</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.3105111154207</v>
+        <v>128.3105111154208</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>169.7044370707393</v>
+        <v>169.7044370707423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6533945988311</v>
+        <v>504.6533945988294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.91122811797999</v>
+        <v>62.9112281179803</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.05365766968282</v>
+        <v>40.05365766968247</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>360.2792000530427</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>79.72222485617382</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5401605439436</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>212.1056780233676</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27950,7 +27950,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>50.36990114399772</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>177.9817277236687</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U9" t="n">
         <v>206.3001656947416</v>
       </c>
       <c r="V9" t="n">
-        <v>216.101987543218</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>228.8930312960917</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28017,16 +28017,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>141.6723990242884</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2208723628971</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7692399855875</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.14228914991649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>220.8374848695466</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>274.3086583328597</v>
       </c>
       <c r="V10" t="n">
-        <v>249.3114263251557</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>273.2851586848435</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.32995331205374</v>
+        <v>57.32995331205371</v>
       </c>
       <c r="S11" t="n">
         <v>102.9648857876628</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="C17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="D17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="E17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="G17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="H17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="I17" t="n">
         <v>151.202831909715</v>
@@ -28612,25 +28612,25 @@
         <v>57.32995331205374</v>
       </c>
       <c r="S17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="T17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="U17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="V17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="W17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="X17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="C19" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>19.10294866700067</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="H19" t="n">
         <v>155.7217436886684</v>
@@ -28770,25 +28770,25 @@
         <v>137.622894916407</v>
       </c>
       <c r="S19" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="T19" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="U19" t="n">
-        <v>165.8761139056428</v>
+        <v>19.10294866699843</v>
       </c>
       <c r="V19" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="W19" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="X19" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="C20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="D20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="E20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="G20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="H20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="I20" t="n">
         <v>151.202831909715</v>
@@ -28849,25 +28849,25 @@
         <v>57.32995331205374</v>
       </c>
       <c r="S20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="T20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="U20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="V20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="W20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="X20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="C22" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28968,10 +28968,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>4.182683185838528</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="H22" t="n">
         <v>155.7217436886684</v>
@@ -29004,28 +29004,28 @@
         <v>18.77708075441933</v>
       </c>
       <c r="R22" t="n">
-        <v>137.622894916407</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>165.8761139056428</v>
+        <v>156.7258435834054</v>
       </c>
       <c r="T22" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="U22" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="V22" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="W22" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="X22" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="C23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="D23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="E23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="G23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="H23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="I23" t="n">
         <v>151.202831909715</v>
@@ -29086,25 +29086,25 @@
         <v>57.32995331205374</v>
       </c>
       <c r="S23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="T23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="U23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="V23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="W23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="X23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="C25" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="H25" t="n">
         <v>155.7217436886684</v>
@@ -29241,28 +29241,28 @@
         <v>18.77708075441933</v>
       </c>
       <c r="R25" t="n">
-        <v>137.622894916407</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.10294866700073</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="T25" t="n">
-        <v>165.8761139056428</v>
+        <v>156.7258435834054</v>
       </c>
       <c r="U25" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="V25" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="W25" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="X25" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.8761139056428</v>
+        <v>165.8761139056431</v>
       </c>
     </row>
     <row r="26">
@@ -29296,28 +29296,28 @@
         <v>102.9648857876628</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>51.80473206461528</v>
+      </c>
+      <c r="L26" t="n">
         <v>102.9648857876628</v>
       </c>
-      <c r="K26" t="n">
-        <v>102.9648857876628</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
-        <v>102.9648857876628</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>102.9648857876628</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>102.9648857876628</v>
       </c>
       <c r="P26" t="n">
-        <v>51.80473206460647</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>102.9648857876628</v>
       </c>
       <c r="R26" t="n">
         <v>102.9648857876628</v>
@@ -29533,31 +29533,31 @@
         <v>102.9648857876628</v>
       </c>
       <c r="J29" t="n">
-        <v>102.9648857876628</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>102.9648857876628</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>102.9648857876628</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>102.9648857876628</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>102.9648857876628</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>97.4396645402241</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.80473206460749</v>
+        <v>102.9648857876628</v>
       </c>
       <c r="R29" t="n">
-        <v>102.9648857876628</v>
+        <v>57.32995331205374</v>
       </c>
       <c r="S29" t="n">
         <v>102.9648857876628</v>
@@ -29691,7 +29691,7 @@
         <v>102.9648857876628</v>
       </c>
       <c r="J31" t="n">
-        <v>102.9648857876629</v>
+        <v>102.9648857876633</v>
       </c>
       <c r="K31" t="n">
         <v>102.9648857876628</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="C32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="D32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="E32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="F32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="G32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="H32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="I32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="J32" t="n">
-        <v>123.5816672416927</v>
+        <v>98.91992230005087</v>
       </c>
       <c r="K32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="L32" t="n">
-        <v>123.5816672416927</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>32.66820837040234</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>123.5816672416927</v>
+        <v>57.32995331205374</v>
       </c>
       <c r="S32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="T32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="U32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="V32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="X32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="Y32" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="C34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="D34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="E34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="F34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="G34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="H34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="I34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="J34" t="n">
         <v>43.09812775825381</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="L34" t="n">
-        <v>73.30978676952915</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="O34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="P34" t="n">
-        <v>123.5816672416927</v>
+        <v>54.53270601512143</v>
       </c>
       <c r="Q34" t="n">
-        <v>123.5816672416927</v>
+        <v>18.77708075441933</v>
       </c>
       <c r="R34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="S34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="T34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="U34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="V34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="W34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="X34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.5816672416927</v>
+        <v>123.5816672416921</v>
       </c>
     </row>
     <row r="35">
@@ -30198,7 +30198,7 @@
         <v>154.4886263394781</v>
       </c>
       <c r="U37" t="n">
-        <v>122.8234541116734</v>
+        <v>154.4886263394781</v>
       </c>
       <c r="V37" t="n">
         <v>154.4886263394781</v>
@@ -30210,7 +30210,7 @@
         <v>154.4886263394781</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.4886263394781</v>
+        <v>122.8234541116739</v>
       </c>
     </row>
     <row r="38">
@@ -30423,16 +30423,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.77708075441933</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.622894916407</v>
       </c>
       <c r="S40" t="n">
-        <v>122.8234541116733</v>
+        <v>154.4886263394781</v>
       </c>
       <c r="T40" t="n">
-        <v>154.4886263394781</v>
+        <v>141.6005348660928</v>
       </c>
       <c r="U40" t="n">
         <v>154.4886263394781</v>
@@ -30624,10 +30624,10 @@
         <v>151.202831909715</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>151.202831909715</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>151.202831909715</v>
       </c>
       <c r="G43" t="n">
         <v>151.202831909715</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.77708075441933</v>
+        <v>22.73090104681605</v>
       </c>
       <c r="R43" t="n">
-        <v>142.5376065074585</v>
+        <v>137.622894916407</v>
       </c>
       <c r="S43" t="n">
         <v>151.202831909715</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.32995331205372</v>
+        <v>57.32995331205374</v>
       </c>
       <c r="S44" t="n">
         <v>151.202831909715</v>
@@ -30876,7 +30876,7 @@
         <v>135.8027980390891</v>
       </c>
       <c r="J46" t="n">
-        <v>43.0981277582538</v>
+        <v>43.09812775825381</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30891,13 +30891,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>4.914711591051741</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.69179234547062</v>
+        <v>18.77708075441933</v>
       </c>
       <c r="R46" t="n">
         <v>137.622894916407</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5158211502127461</v>
+        <v>0.5158211502127465</v>
       </c>
       <c r="H11" t="n">
-        <v>5.282653354616287</v>
+        <v>5.282653354616293</v>
       </c>
       <c r="I11" t="n">
-        <v>19.88619489357691</v>
+        <v>19.88619489357693</v>
       </c>
       <c r="J11" t="n">
-        <v>43.7796753478691</v>
+        <v>43.77967534786914</v>
       </c>
       <c r="K11" t="n">
-        <v>65.61438463637465</v>
+        <v>65.61438463637471</v>
       </c>
       <c r="L11" t="n">
-        <v>81.40044616219801</v>
+        <v>81.40044616219808</v>
       </c>
       <c r="M11" t="n">
-        <v>90.57368054229393</v>
+        <v>90.573680542294</v>
       </c>
       <c r="N11" t="n">
-        <v>92.0392573853359</v>
+        <v>92.03925738533597</v>
       </c>
       <c r="O11" t="n">
-        <v>86.91006082290789</v>
+        <v>86.91006082290798</v>
       </c>
       <c r="P11" t="n">
-        <v>74.17572617703071</v>
+        <v>74.17572617703078</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.70288123503673</v>
+        <v>55.70288123503678</v>
       </c>
       <c r="R11" t="n">
-        <v>32.40195032705144</v>
+        <v>32.40195032705147</v>
       </c>
       <c r="S11" t="n">
-        <v>11.75427446047296</v>
+        <v>11.75427446047297</v>
       </c>
       <c r="T11" t="n">
-        <v>2.258007085056297</v>
+        <v>2.258007085056299</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04126569201701968</v>
+        <v>0.04126569201701972</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2759886465501502</v>
+        <v>0.2759886465501504</v>
       </c>
       <c r="H12" t="n">
-        <v>2.665469296944872</v>
+        <v>2.665469296944874</v>
       </c>
       <c r="I12" t="n">
-        <v>9.502240681660874</v>
+        <v>9.502240681660883</v>
       </c>
       <c r="J12" t="n">
-        <v>26.07487471638941</v>
+        <v>26.07487471638943</v>
       </c>
       <c r="K12" t="n">
-        <v>44.56611403524947</v>
+        <v>44.56611403524951</v>
       </c>
       <c r="L12" t="n">
-        <v>59.92464012046134</v>
+        <v>59.9246401204614</v>
       </c>
       <c r="M12" t="n">
-        <v>69.92922855790427</v>
+        <v>69.92922855790434</v>
       </c>
       <c r="N12" t="n">
-        <v>71.78004715691823</v>
+        <v>71.78004715691829</v>
       </c>
       <c r="O12" t="n">
-        <v>65.66471977809647</v>
+        <v>65.66471977809654</v>
       </c>
       <c r="P12" t="n">
-        <v>52.70172672587912</v>
+        <v>52.70172672587917</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.22970863682269</v>
+        <v>35.22970863682271</v>
       </c>
       <c r="R12" t="n">
-        <v>17.13550561650845</v>
+        <v>17.13550561650847</v>
       </c>
       <c r="S12" t="n">
-        <v>5.126368062017041</v>
+        <v>5.126368062017045</v>
       </c>
       <c r="T12" t="n">
-        <v>1.112427921840298</v>
+        <v>1.112427921840299</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01815714779935199</v>
+        <v>0.01815714779935201</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2313796102081357</v>
+        <v>0.2313796102081359</v>
       </c>
       <c r="H13" t="n">
-        <v>2.057175079850517</v>
+        <v>2.057175079850519</v>
       </c>
       <c r="I13" t="n">
-        <v>6.958215914259209</v>
+        <v>6.958215914259215</v>
       </c>
       <c r="J13" t="n">
-        <v>16.35853844171519</v>
+        <v>16.3585384417152</v>
       </c>
       <c r="K13" t="n">
-        <v>26.88210380418157</v>
+        <v>26.8821038041816</v>
       </c>
       <c r="L13" t="n">
-        <v>34.3998376849441</v>
+        <v>34.39983768494413</v>
       </c>
       <c r="M13" t="n">
-        <v>36.2698056256262</v>
+        <v>36.26980562562624</v>
       </c>
       <c r="N13" t="n">
-        <v>35.40739071485046</v>
+        <v>35.40739071485049</v>
       </c>
       <c r="O13" t="n">
-        <v>32.70445617741904</v>
+        <v>32.70445617741907</v>
       </c>
       <c r="P13" t="n">
-        <v>27.98431212917305</v>
+        <v>27.98431212917308</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.37488717842852</v>
+        <v>19.37488717842854</v>
       </c>
       <c r="R13" t="n">
-        <v>10.40366865535853</v>
+        <v>10.40366865535854</v>
       </c>
       <c r="S13" t="n">
-        <v>4.032315570627236</v>
+        <v>4.032315570627239</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9886219708893066</v>
+        <v>0.9886219708893075</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01262070601135287</v>
+        <v>0.01262070601135288</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5158211502127465</v>
+        <v>0.5158211502127461</v>
       </c>
       <c r="H26" t="n">
-        <v>5.282653354616293</v>
+        <v>5.282653354616287</v>
       </c>
       <c r="I26" t="n">
-        <v>19.88619489357693</v>
+        <v>19.88619489357691</v>
       </c>
       <c r="J26" t="n">
-        <v>43.77967534786914</v>
+        <v>43.7796753478691</v>
       </c>
       <c r="K26" t="n">
-        <v>65.61438463637471</v>
+        <v>65.61438463637465</v>
       </c>
       <c r="L26" t="n">
-        <v>81.40044616219808</v>
+        <v>81.40044616219801</v>
       </c>
       <c r="M26" t="n">
-        <v>90.573680542294</v>
+        <v>90.57368054229393</v>
       </c>
       <c r="N26" t="n">
-        <v>92.03925738533597</v>
+        <v>92.0392573853359</v>
       </c>
       <c r="O26" t="n">
-        <v>86.91006082290798</v>
+        <v>86.91006082290789</v>
       </c>
       <c r="P26" t="n">
-        <v>74.17572617703078</v>
+        <v>74.17572617703071</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.70288123503678</v>
+        <v>55.70288123503673</v>
       </c>
       <c r="R26" t="n">
-        <v>32.40195032705147</v>
+        <v>32.40195032705144</v>
       </c>
       <c r="S26" t="n">
-        <v>11.75427446047297</v>
+        <v>11.75427446047296</v>
       </c>
       <c r="T26" t="n">
-        <v>2.258007085056299</v>
+        <v>2.258007085056297</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04126569201701972</v>
+        <v>0.04126569201701968</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2759886465501504</v>
+        <v>0.2759886465501502</v>
       </c>
       <c r="H27" t="n">
-        <v>2.665469296944874</v>
+        <v>2.665469296944872</v>
       </c>
       <c r="I27" t="n">
-        <v>9.502240681660883</v>
+        <v>9.502240681660874</v>
       </c>
       <c r="J27" t="n">
-        <v>26.07487471638943</v>
+        <v>26.07487471638941</v>
       </c>
       <c r="K27" t="n">
-        <v>44.56611403524951</v>
+        <v>44.56611403524947</v>
       </c>
       <c r="L27" t="n">
-        <v>59.9246401204614</v>
+        <v>59.92464012046134</v>
       </c>
       <c r="M27" t="n">
-        <v>69.92922855790434</v>
+        <v>69.92922855790427</v>
       </c>
       <c r="N27" t="n">
-        <v>71.78004715691829</v>
+        <v>71.78004715691823</v>
       </c>
       <c r="O27" t="n">
-        <v>65.66471977809654</v>
+        <v>65.66471977809647</v>
       </c>
       <c r="P27" t="n">
-        <v>52.70172672587917</v>
+        <v>52.70172672587912</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.22970863682271</v>
+        <v>35.22970863682269</v>
       </c>
       <c r="R27" t="n">
-        <v>17.13550561650847</v>
+        <v>17.13550561650845</v>
       </c>
       <c r="S27" t="n">
-        <v>5.126368062017045</v>
+        <v>5.126368062017041</v>
       </c>
       <c r="T27" t="n">
-        <v>1.112427921840299</v>
+        <v>1.112427921840298</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01815714779935201</v>
+        <v>0.01815714779935199</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2313796102081359</v>
+        <v>0.2313796102081357</v>
       </c>
       <c r="H28" t="n">
-        <v>2.057175079850519</v>
+        <v>2.057175079850517</v>
       </c>
       <c r="I28" t="n">
-        <v>6.958215914259215</v>
+        <v>6.958215914259209</v>
       </c>
       <c r="J28" t="n">
-        <v>16.3585384417152</v>
+        <v>16.35853844171519</v>
       </c>
       <c r="K28" t="n">
-        <v>26.8821038041816</v>
+        <v>26.88210380418157</v>
       </c>
       <c r="L28" t="n">
-        <v>34.39983768494413</v>
+        <v>34.3998376849441</v>
       </c>
       <c r="M28" t="n">
-        <v>36.26980562562624</v>
+        <v>36.2698056256262</v>
       </c>
       <c r="N28" t="n">
-        <v>35.40739071485049</v>
+        <v>35.40739071485046</v>
       </c>
       <c r="O28" t="n">
-        <v>32.70445617741907</v>
+        <v>32.70445617741904</v>
       </c>
       <c r="P28" t="n">
-        <v>27.98431212917308</v>
+        <v>27.98431212917305</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.37488717842854</v>
+        <v>19.37488717842852</v>
       </c>
       <c r="R28" t="n">
-        <v>10.40366865535854</v>
+        <v>10.40366865535853</v>
       </c>
       <c r="S28" t="n">
-        <v>4.032315570627239</v>
+        <v>4.032315570627236</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9886219708893075</v>
+        <v>0.9886219708893066</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01262070601135288</v>
+        <v>0.01262070601135287</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5158211502127464</v>
+        <v>0.5158211502127461</v>
       </c>
       <c r="H44" t="n">
-        <v>5.282653354616291</v>
+        <v>5.282653354616287</v>
       </c>
       <c r="I44" t="n">
-        <v>19.88619489357693</v>
+        <v>19.88619489357691</v>
       </c>
       <c r="J44" t="n">
-        <v>43.77967534786913</v>
+        <v>43.7796753478691</v>
       </c>
       <c r="K44" t="n">
-        <v>65.61438463637469</v>
+        <v>65.61438463637465</v>
       </c>
       <c r="L44" t="n">
-        <v>81.40044616219805</v>
+        <v>81.40044616219801</v>
       </c>
       <c r="M44" t="n">
-        <v>90.57368054229399</v>
+        <v>90.57368054229393</v>
       </c>
       <c r="N44" t="n">
-        <v>92.03925738533596</v>
+        <v>92.0392573853359</v>
       </c>
       <c r="O44" t="n">
-        <v>86.91006082290795</v>
+        <v>86.91006082290789</v>
       </c>
       <c r="P44" t="n">
-        <v>74.17572617703077</v>
+        <v>74.17572617703071</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.70288123503676</v>
+        <v>55.70288123503673</v>
       </c>
       <c r="R44" t="n">
-        <v>32.40195032705147</v>
+        <v>32.40195032705144</v>
       </c>
       <c r="S44" t="n">
-        <v>11.75427446047297</v>
+        <v>11.75427446047296</v>
       </c>
       <c r="T44" t="n">
-        <v>2.258007085056299</v>
+        <v>2.258007085056297</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04126569201701971</v>
+        <v>0.04126569201701968</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2759886465501504</v>
+        <v>0.2759886465501502</v>
       </c>
       <c r="H45" t="n">
-        <v>2.665469296944874</v>
+        <v>2.665469296944872</v>
       </c>
       <c r="I45" t="n">
-        <v>9.502240681660879</v>
+        <v>9.502240681660874</v>
       </c>
       <c r="J45" t="n">
-        <v>26.07487471638943</v>
+        <v>26.07487471638941</v>
       </c>
       <c r="K45" t="n">
-        <v>44.56611403524951</v>
+        <v>44.56611403524947</v>
       </c>
       <c r="L45" t="n">
-        <v>59.92464012046138</v>
+        <v>59.92464012046134</v>
       </c>
       <c r="M45" t="n">
-        <v>69.92922855790431</v>
+        <v>69.92922855790427</v>
       </c>
       <c r="N45" t="n">
-        <v>71.78004715691827</v>
+        <v>71.78004715691823</v>
       </c>
       <c r="O45" t="n">
-        <v>65.66471977809653</v>
+        <v>65.66471977809647</v>
       </c>
       <c r="P45" t="n">
-        <v>52.70172672587915</v>
+        <v>52.70172672587912</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.22970863682271</v>
+        <v>35.22970863682269</v>
       </c>
       <c r="R45" t="n">
-        <v>17.13550561650846</v>
+        <v>17.13550561650845</v>
       </c>
       <c r="S45" t="n">
-        <v>5.126368062017044</v>
+        <v>5.126368062017041</v>
       </c>
       <c r="T45" t="n">
-        <v>1.112427921840299</v>
+        <v>1.112427921840298</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01815714779935201</v>
+        <v>0.01815714779935199</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2313796102081358</v>
+        <v>0.2313796102081357</v>
       </c>
       <c r="H46" t="n">
-        <v>2.057175079850518</v>
+        <v>2.057175079850517</v>
       </c>
       <c r="I46" t="n">
-        <v>6.958215914259213</v>
+        <v>6.958215914259209</v>
       </c>
       <c r="J46" t="n">
-        <v>16.3585384417152</v>
+        <v>16.35853844171519</v>
       </c>
       <c r="K46" t="n">
-        <v>26.88210380418159</v>
+        <v>26.88210380418157</v>
       </c>
       <c r="L46" t="n">
-        <v>34.39983768494412</v>
+        <v>34.3998376849441</v>
       </c>
       <c r="M46" t="n">
-        <v>36.26980562562623</v>
+        <v>36.2698056256262</v>
       </c>
       <c r="N46" t="n">
-        <v>35.40739071485048</v>
+        <v>35.40739071485046</v>
       </c>
       <c r="O46" t="n">
-        <v>32.70445617741906</v>
+        <v>32.70445617741904</v>
       </c>
       <c r="P46" t="n">
-        <v>27.98431212917307</v>
+        <v>27.98431212917305</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.37488717842854</v>
+        <v>19.37488717842852</v>
       </c>
       <c r="R46" t="n">
-        <v>10.40366865535854</v>
+        <v>10.40366865535853</v>
       </c>
       <c r="S46" t="n">
-        <v>4.032315570627238</v>
+        <v>4.032315570627236</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9886219708893073</v>
+        <v>0.9886219708893066</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01262070601135288</v>
+        <v>0.01262070601135287</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="L8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="N8" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="N9" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="O9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,13 +35334,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="N10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>10.00967878293136</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.5054776436324</v>
       </c>
       <c r="K11" t="n">
         <v>308.1804170048421</v>
       </c>
       <c r="L11" t="n">
-        <v>432.799812914669</v>
+        <v>270.1380172547268</v>
       </c>
       <c r="M11" t="n">
-        <v>487.7849595858171</v>
+        <v>487.7849595858172</v>
       </c>
       <c r="N11" t="n">
         <v>474.1921449486852</v>
       </c>
       <c r="O11" t="n">
-        <v>394.9954996843563</v>
+        <v>394.9954996843564</v>
       </c>
       <c r="P11" t="n">
-        <v>304.6372377488016</v>
+        <v>304.6372377488017</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.9326780536132</v>
+        <v>151.0889960699226</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.93764899225421</v>
+        <v>86.93764899225422</v>
       </c>
       <c r="K12" t="n">
-        <v>276.374752984935</v>
+        <v>276.3747529849351</v>
       </c>
       <c r="L12" t="n">
         <v>429.4416554438105</v>
       </c>
       <c r="M12" t="n">
-        <v>559.8619088712643</v>
+        <v>559.8619088712644</v>
       </c>
       <c r="N12" t="n">
         <v>588.2099927358295</v>
       </c>
       <c r="O12" t="n">
-        <v>14.25267973050272</v>
+        <v>14.25267973050135</v>
       </c>
       <c r="P12" t="n">
-        <v>357.8491199336541</v>
+        <v>357.8491199336542</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.594991248534</v>
+        <v>194.5949912485341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.86675802940903</v>
+        <v>59.86675802940898</v>
       </c>
       <c r="K13" t="n">
         <v>163.7906135763327</v>
@@ -35586,7 +35586,7 @@
         <v>194.5537269351569</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.18780503324351</v>
+        <v>84.18780503324346</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>104.9326780536163</v>
+        <v>116.5054776436324</v>
       </c>
       <c r="K14" t="n">
         <v>308.1804170048421</v>
@@ -35656,7 +35656,7 @@
         <v>487.7849595858171</v>
       </c>
       <c r="N14" t="n">
-        <v>474.1921449486852</v>
+        <v>462.6193453586659</v>
       </c>
       <c r="O14" t="n">
         <v>394.9954996843563</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.86675802940903</v>
+        <v>59.866758029409</v>
       </c>
       <c r="K16" t="n">
         <v>163.7906135763327</v>
@@ -35820,10 +35820,10 @@
         <v>235.1275707486068</v>
       </c>
       <c r="P16" t="n">
-        <v>194.5537269351569</v>
+        <v>194.5537269351568</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.18780503324351</v>
+        <v>84.18780503324348</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>116.5054776436324</v>
       </c>
       <c r="K17" t="n">
         <v>308.1804170048421</v>
       </c>
       <c r="L17" t="n">
-        <v>432.799812914669</v>
+        <v>270.1380172547271</v>
       </c>
       <c r="M17" t="n">
         <v>487.7849595858171</v>
@@ -35902,7 +35902,7 @@
         <v>304.6372377488016</v>
       </c>
       <c r="Q17" t="n">
-        <v>104.9326780536164</v>
+        <v>151.0889960699226</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>429.4416554438105</v>
       </c>
       <c r="M18" t="n">
-        <v>112.2883023750321</v>
+        <v>559.8619088712643</v>
       </c>
       <c r="N18" t="n">
-        <v>588.2099927358295</v>
+        <v>335.2313774881324</v>
       </c>
       <c r="O18" t="n">
         <v>461.8262862267337</v>
@@ -35981,7 +35981,7 @@
         <v>357.8491199336541</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.594991248534</v>
+        <v>-9.186815169423518e-13</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>116.5054776436324</v>
       </c>
       <c r="K20" t="n">
-        <v>308.1804170048421</v>
+        <v>145.5186213449002</v>
       </c>
       <c r="L20" t="n">
         <v>432.799812914669</v>
@@ -36136,7 +36136,7 @@
         <v>394.9954996843563</v>
       </c>
       <c r="P20" t="n">
-        <v>258.4809197324954</v>
+        <v>304.6372377488016</v>
       </c>
       <c r="Q20" t="n">
         <v>151.0889960699226</v>
@@ -36203,13 +36203,13 @@
         <v>276.374752984935</v>
       </c>
       <c r="L21" t="n">
-        <v>429.4416554438105</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>559.8619088712643</v>
       </c>
       <c r="N21" t="n">
-        <v>140.6363862395973</v>
+        <v>570.0780416834087</v>
       </c>
       <c r="O21" t="n">
         <v>461.8262862267337</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>116.5054776436324</v>
       </c>
       <c r="K23" t="n">
         <v>308.1804170048421</v>
@@ -36373,10 +36373,10 @@
         <v>394.9954996843563</v>
       </c>
       <c r="P23" t="n">
-        <v>304.6372377488016</v>
+        <v>141.9754420888588</v>
       </c>
       <c r="Q23" t="n">
-        <v>104.9326780536164</v>
+        <v>151.0889960699226</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>276.374752984935</v>
       </c>
       <c r="L24" t="n">
-        <v>429.4416554438105</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>559.8619088712643</v>
       </c>
       <c r="N24" t="n">
-        <v>140.6363862395973</v>
+        <v>588.2099927358295</v>
       </c>
       <c r="O24" t="n">
         <v>461.8262862267337</v>
@@ -36455,7 +36455,7 @@
         <v>357.8491199336541</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.594991248534</v>
+        <v>176.4630401961129</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.4703634312952</v>
+        <v>116.5054776436324</v>
       </c>
       <c r="K26" t="n">
-        <v>411.145302792505</v>
+        <v>359.9851490694573</v>
       </c>
       <c r="L26" t="n">
-        <v>432.799812914669</v>
+        <v>535.7646987023318</v>
       </c>
       <c r="M26" t="n">
-        <v>590.74984537348</v>
+        <v>487.7849595858171</v>
       </c>
       <c r="N26" t="n">
-        <v>577.157030736348</v>
+        <v>577.1570307363479</v>
       </c>
       <c r="O26" t="n">
-        <v>394.9954996843564</v>
+        <v>497.9603854720191</v>
       </c>
       <c r="P26" t="n">
-        <v>356.4419698134082</v>
+        <v>304.6372377488016</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.0889960699226</v>
+        <v>254.0538818575854</v>
       </c>
       <c r="R26" t="n">
-        <v>45.6349324756091</v>
+        <v>45.63493247560906</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.93764899225422</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>276.3747529849351</v>
+        <v>276.374752984935</v>
       </c>
       <c r="L27" t="n">
         <v>429.4416554438105</v>
       </c>
       <c r="M27" t="n">
-        <v>112.2883023750318</v>
+        <v>199.2259513672864</v>
       </c>
       <c r="N27" t="n">
         <v>588.2099927358295</v>
       </c>
       <c r="O27" t="n">
-        <v>461.8262862267338</v>
+        <v>461.8262862267337</v>
       </c>
       <c r="P27" t="n">
-        <v>357.8491199336542</v>
+        <v>357.8491199336541</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.5949912485341</v>
+        <v>194.594991248534</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.86675802940901</v>
+        <v>59.86675802940898</v>
       </c>
       <c r="K28" t="n">
         <v>163.7906135763327</v>
       </c>
       <c r="L28" t="n">
-        <v>238.9880359981216</v>
+        <v>238.9880359981215</v>
       </c>
       <c r="M28" t="n">
-        <v>258.4200511381393</v>
+        <v>258.4200511381392</v>
       </c>
       <c r="N28" t="n">
         <v>257.9908035223116</v>
@@ -36768,10 +36768,10 @@
         <v>235.1275707486068</v>
       </c>
       <c r="P28" t="n">
-        <v>194.5537269351569</v>
+        <v>194.5537269351568</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.18780503324349</v>
+        <v>84.18780503324346</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.4703634312952</v>
+        <v>116.5054776436324</v>
       </c>
       <c r="K29" t="n">
-        <v>411.1453027925049</v>
+        <v>308.1804170048421</v>
       </c>
       <c r="L29" t="n">
         <v>535.7646987023318</v>
       </c>
       <c r="M29" t="n">
-        <v>590.74984537348</v>
+        <v>487.7849595858171</v>
       </c>
       <c r="N29" t="n">
-        <v>474.1921449486852</v>
+        <v>577.1570307363479</v>
       </c>
       <c r="O29" t="n">
-        <v>394.9954996843563</v>
+        <v>497.9603854720191</v>
       </c>
       <c r="P29" t="n">
-        <v>304.6372377488016</v>
+        <v>402.0769022890257</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.8937281345301</v>
+        <v>254.0538818575854</v>
       </c>
       <c r="R29" t="n">
-        <v>45.63493247560907</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>276.374752984935</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>429.4416554438105</v>
@@ -36920,7 +36920,7 @@
         <v>559.8619088712643</v>
       </c>
       <c r="N30" t="n">
-        <v>422.1690264803856</v>
+        <v>503.9487882167867</v>
       </c>
       <c r="O30" t="n">
         <v>461.8262862267337</v>
@@ -36929,7 +36929,7 @@
         <v>357.8491199336541</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>194.594991248534</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.86675802940906</v>
+        <v>59.86675802940947</v>
       </c>
       <c r="K31" t="n">
         <v>163.7906135763327</v>
       </c>
       <c r="L31" t="n">
-        <v>238.9880359981216</v>
+        <v>238.9880359981215</v>
       </c>
       <c r="M31" t="n">
         <v>258.4200511381392</v>
@@ -37008,7 +37008,7 @@
         <v>194.5537269351568</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.18780503324348</v>
+        <v>84.18780503324346</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>240.0871448853251</v>
+        <v>215.4253999436833</v>
       </c>
       <c r="K32" t="n">
-        <v>431.7620842465348</v>
+        <v>431.7620842465342</v>
       </c>
       <c r="L32" t="n">
-        <v>556.3814801563616</v>
+        <v>432.799812914669</v>
       </c>
       <c r="M32" t="n">
-        <v>520.4531679562194</v>
+        <v>487.7849595858171</v>
       </c>
       <c r="N32" t="n">
-        <v>474.1921449486852</v>
+        <v>597.7738121903772</v>
       </c>
       <c r="O32" t="n">
-        <v>394.9954996843563</v>
+        <v>518.5771669260484</v>
       </c>
       <c r="P32" t="n">
         <v>304.6372377488016</v>
@@ -37090,7 +37090,7 @@
         <v>151.0889960699226</v>
       </c>
       <c r="R32" t="n">
-        <v>66.25171392963892</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.93764899225421</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>276.374752984935</v>
@@ -37154,19 +37154,19 @@
         <v>429.4416554438105</v>
       </c>
       <c r="M33" t="n">
-        <v>112.2883023750322</v>
+        <v>559.8619088712643</v>
       </c>
       <c r="N33" t="n">
         <v>588.2099927358295</v>
       </c>
       <c r="O33" t="n">
-        <v>461.8262862267337</v>
+        <v>295.7853199712902</v>
       </c>
       <c r="P33" t="n">
         <v>357.8491199336541</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.594991248534</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>60.82572778866987</v>
+        <v>184.407395030362</v>
       </c>
       <c r="L34" t="n">
-        <v>209.3329369799879</v>
+        <v>136.0231502104588</v>
       </c>
       <c r="M34" t="n">
         <v>155.4551653504764</v>
       </c>
       <c r="N34" t="n">
-        <v>155.0259177346488</v>
+        <v>278.6075849763409</v>
       </c>
       <c r="O34" t="n">
-        <v>255.7443522026367</v>
+        <v>255.744352202636</v>
       </c>
       <c r="P34" t="n">
-        <v>215.1705083891867</v>
+        <v>146.1215471626155</v>
       </c>
       <c r="Q34" t="n">
-        <v>104.8045864872733</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>86.93764899225421</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>276.374752984935</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>429.4416554438105</v>
+        <v>345.1804509247675</v>
       </c>
       <c r="M36" t="n">
         <v>559.8619088712643</v>
       </c>
       <c r="N36" t="n">
-        <v>140.6363862395973</v>
+        <v>588.2099927358295</v>
       </c>
       <c r="O36" t="n">
         <v>461.8262862267337</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.5054776436328</v>
+        <v>116.5054776436324</v>
       </c>
       <c r="K38" t="n">
         <v>308.1804170048421</v>
@@ -37628,10 +37628,10 @@
         <v>429.4416554438105</v>
       </c>
       <c r="M39" t="n">
-        <v>112.2883023750321</v>
+        <v>559.8619088712643</v>
       </c>
       <c r="N39" t="n">
-        <v>588.2099927358295</v>
+        <v>140.6363862395973</v>
       </c>
       <c r="O39" t="n">
         <v>461.8262862267337</v>
@@ -37780,7 +37780,7 @@
         <v>116.5054776436324</v>
       </c>
       <c r="K41" t="n">
-        <v>308.1804170048421</v>
+        <v>308.1804170048438</v>
       </c>
       <c r="L41" t="n">
         <v>432.799812914669</v>
@@ -37859,7 +37859,7 @@
         <v>86.93764899225421</v>
       </c>
       <c r="K42" t="n">
-        <v>276.374752984935</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>429.4416554438105</v>
@@ -37868,10 +37868,10 @@
         <v>559.8619088712643</v>
       </c>
       <c r="N42" t="n">
-        <v>140.6363862395973</v>
+        <v>588.2099927358295</v>
       </c>
       <c r="O42" t="n">
-        <v>461.8262862267337</v>
+        <v>290.6274327154366</v>
       </c>
       <c r="P42" t="n">
         <v>357.8491199336541</v>
@@ -37920,10 +37920,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.7139078134206329</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.246983485234324</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         <v>91.58884114749405</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>3.953820292396717</v>
       </c>
       <c r="R43" t="n">
-        <v>4.914711591051415</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.5054776436321</v>
+        <v>116.5054776436324</v>
       </c>
       <c r="K44" t="n">
         <v>308.1804170048421</v>
@@ -38029,10 +38029,10 @@
         <v>474.1921449486852</v>
       </c>
       <c r="O44" t="n">
-        <v>394.9954996843564</v>
+        <v>394.9954996843563</v>
       </c>
       <c r="P44" t="n">
-        <v>304.6372377488017</v>
+        <v>304.6372377488016</v>
       </c>
       <c r="Q44" t="n">
         <v>151.0889960699226</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>86.93764899225422</v>
+        <v>86.93764899225421</v>
       </c>
       <c r="K45" t="n">
         <v>276.374752984935</v>
@@ -38102,16 +38102,16 @@
         <v>429.4416554438105</v>
       </c>
       <c r="M45" t="n">
-        <v>559.8619088712644</v>
+        <v>112.2883023750321</v>
       </c>
       <c r="N45" t="n">
-        <v>140.636386239597</v>
+        <v>588.2099927358295</v>
       </c>
       <c r="O45" t="n">
-        <v>461.8262862267338</v>
+        <v>461.8262862267337</v>
       </c>
       <c r="P45" t="n">
-        <v>357.8491199336542</v>
+        <v>357.8491199336541</v>
       </c>
       <c r="Q45" t="n">
         <v>194.594991248534</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>60.82572778866989</v>
+        <v>60.82572778866987</v>
       </c>
       <c r="L46" t="n">
         <v>136.0231502104588</v>
@@ -38187,13 +38187,13 @@
         <v>155.0259177346488</v>
       </c>
       <c r="O46" t="n">
-        <v>132.162684960944</v>
+        <v>137.0773965519957</v>
       </c>
       <c r="P46" t="n">
-        <v>91.58884114749407</v>
+        <v>91.58884114749405</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.914711591051299</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
